--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -7352,28 +7352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2065.163443764127</v>
+        <v>2150.362055859282</v>
       </c>
       <c r="AB2" t="n">
-        <v>2825.647732339095</v>
+        <v>2942.220232105177</v>
       </c>
       <c r="AC2" t="n">
-        <v>2555.971878586151</v>
+        <v>2661.418862585089</v>
       </c>
       <c r="AD2" t="n">
-        <v>2065163.443764127</v>
+        <v>2150362.055859282</v>
       </c>
       <c r="AE2" t="n">
-        <v>2825647.732339095</v>
+        <v>2942220.232105177</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.132938464006888e-06</v>
+        <v>2.096232778050118e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.4125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2555971.878586152</v>
+        <v>2661418.862585089</v>
       </c>
     </row>
     <row r="3">
@@ -7458,28 +7458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>728.0524496537325</v>
+        <v>764.6393410033181</v>
       </c>
       <c r="AB3" t="n">
-        <v>996.1534810234423</v>
+        <v>1046.213279867674</v>
       </c>
       <c r="AC3" t="n">
-        <v>901.0819909047559</v>
+        <v>946.3641528066632</v>
       </c>
       <c r="AD3" t="n">
-        <v>728052.4496537326</v>
+        <v>764639.3410033181</v>
       </c>
       <c r="AE3" t="n">
-        <v>996153.4810234422</v>
+        <v>1046213.279867674</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.104820520047821e-06</v>
+        <v>3.894469034471685e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.219791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>901081.9909047559</v>
+        <v>946364.1528066632</v>
       </c>
     </row>
     <row r="4">
@@ -7564,28 +7564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>570.2872714750861</v>
+        <v>606.7888219700999</v>
       </c>
       <c r="AB4" t="n">
-        <v>780.2922041309769</v>
+        <v>830.235235853011</v>
       </c>
       <c r="AC4" t="n">
-        <v>705.8222113157024</v>
+        <v>750.998750185671</v>
       </c>
       <c r="AD4" t="n">
-        <v>570287.2714750861</v>
+        <v>606788.8219700999</v>
       </c>
       <c r="AE4" t="n">
-        <v>780292.2041309769</v>
+        <v>830235.235853011</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.457569065755863e-06</v>
+        <v>4.547146198690741e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.183333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>705822.2113157024</v>
+        <v>750998.750185671</v>
       </c>
     </row>
     <row r="5">
@@ -7670,28 +7670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>500.6970882674079</v>
+        <v>537.2838901084424</v>
       </c>
       <c r="AB5" t="n">
-        <v>685.0758453640256</v>
+        <v>735.135521738709</v>
       </c>
       <c r="AC5" t="n">
-        <v>619.6931681924701</v>
+        <v>664.9752193131509</v>
       </c>
       <c r="AD5" t="n">
-        <v>500697.088267408</v>
+        <v>537283.8901084424</v>
       </c>
       <c r="AE5" t="n">
-        <v>685075.8453640256</v>
+        <v>735135.5217387091</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.646781168230359e-06</v>
+        <v>4.897238126727182e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.741666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>619693.1681924701</v>
+        <v>664975.2193131509</v>
       </c>
     </row>
     <row r="6">
@@ -7776,28 +7776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>470.7286094910021</v>
+        <v>507.3154113320367</v>
       </c>
       <c r="AB6" t="n">
-        <v>644.0716505861739</v>
+        <v>694.1313269608572</v>
       </c>
       <c r="AC6" t="n">
-        <v>582.6023562144678</v>
+        <v>627.8844073351486</v>
       </c>
       <c r="AD6" t="n">
-        <v>470728.6094910022</v>
+        <v>507315.4113320367</v>
       </c>
       <c r="AE6" t="n">
-        <v>644071.6505861739</v>
+        <v>694131.3269608573</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.761446328249598e-06</v>
+        <v>5.109398693756205e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.503125</v>
       </c>
       <c r="AH6" t="n">
-        <v>582602.3562144678</v>
+        <v>627884.4073351485</v>
       </c>
     </row>
     <row r="7">
@@ -7882,28 +7882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>451.2959496239386</v>
+        <v>487.7121592643808</v>
       </c>
       <c r="AB7" t="n">
-        <v>617.4830280476099</v>
+        <v>667.3092926474463</v>
       </c>
       <c r="AC7" t="n">
-        <v>558.5513144936181</v>
+        <v>603.6222303316478</v>
       </c>
       <c r="AD7" t="n">
-        <v>451295.9496239385</v>
+        <v>487712.1592643808</v>
       </c>
       <c r="AE7" t="n">
-        <v>617483.0280476098</v>
+        <v>667309.2926474464</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.840369803530016e-06</v>
+        <v>5.255427786329616e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.350000000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>558551.3144936181</v>
+        <v>603622.2303316478</v>
       </c>
     </row>
     <row r="8">
@@ -7988,28 +7988,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>437.0485978864461</v>
+        <v>461.4398886223537</v>
       </c>
       <c r="AB8" t="n">
-        <v>597.9891728515748</v>
+        <v>631.3624129042455</v>
       </c>
       <c r="AC8" t="n">
-        <v>540.9179254776952</v>
+        <v>571.1060703393755</v>
       </c>
       <c r="AD8" t="n">
-        <v>437048.5978864462</v>
+        <v>461439.8886223537</v>
       </c>
       <c r="AE8" t="n">
-        <v>597989.1728515748</v>
+        <v>631362.4129042455</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.899890649952217e-06</v>
+        <v>5.365556935627125e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.240625000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>540917.9254776952</v>
+        <v>571106.0703393755</v>
       </c>
     </row>
     <row r="9">
@@ -8094,28 +8094,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>426.6708348032768</v>
+        <v>451.0621255391842</v>
       </c>
       <c r="AB9" t="n">
-        <v>583.7898595665877</v>
+        <v>617.1630996192584</v>
       </c>
       <c r="AC9" t="n">
-        <v>528.0737747237658</v>
+        <v>558.2619195854461</v>
       </c>
       <c r="AD9" t="n">
-        <v>426670.8348032768</v>
+        <v>451062.1255391842</v>
       </c>
       <c r="AE9" t="n">
-        <v>583789.8595665877</v>
+        <v>617163.0996192584</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.943364209348824e-06</v>
+        <v>5.44599440251599e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.162500000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>528073.7747237658</v>
+        <v>558261.9195854461</v>
       </c>
     </row>
     <row r="10">
@@ -8200,28 +8200,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>419.2789327022408</v>
+        <v>443.6702234381483</v>
       </c>
       <c r="AB10" t="n">
-        <v>573.6759330042452</v>
+        <v>607.0491730569158</v>
       </c>
       <c r="AC10" t="n">
-        <v>518.9251071175481</v>
+        <v>549.1132519792285</v>
       </c>
       <c r="AD10" t="n">
-        <v>419278.9327022408</v>
+        <v>443670.2234381483</v>
       </c>
       <c r="AE10" t="n">
-        <v>573675.9330042452</v>
+        <v>607049.1730569159</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.974145823552462e-06</v>
+        <v>5.502948447863477e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.109375</v>
       </c>
       <c r="AH10" t="n">
-        <v>518925.1071175481</v>
+        <v>549113.2519792285</v>
       </c>
     </row>
     <row r="11">
@@ -8306,28 +8306,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>413.2784186062865</v>
+        <v>437.6697093421939</v>
       </c>
       <c r="AB11" t="n">
-        <v>565.4657648941618</v>
+        <v>598.8390049468326</v>
       </c>
       <c r="AC11" t="n">
-        <v>511.4985059288478</v>
+        <v>541.6866507905281</v>
       </c>
       <c r="AD11" t="n">
-        <v>413278.4186062865</v>
+        <v>437669.7093421939</v>
       </c>
       <c r="AE11" t="n">
-        <v>565465.7648941618</v>
+        <v>598839.0049468325</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.998800291800874e-06</v>
+        <v>5.548565669018572e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.067708333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>511498.5059288478</v>
+        <v>541686.6507905282</v>
       </c>
     </row>
     <row r="12">
@@ -8412,28 +8412,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>406.1421997242598</v>
+        <v>430.5334904601672</v>
       </c>
       <c r="AB12" t="n">
-        <v>555.7016753920151</v>
+        <v>589.0749154446859</v>
       </c>
       <c r="AC12" t="n">
-        <v>502.6662874248004</v>
+        <v>532.8544322864808</v>
       </c>
       <c r="AD12" t="n">
-        <v>406142.1997242598</v>
+        <v>430533.4904601672</v>
       </c>
       <c r="AE12" t="n">
-        <v>555701.6753920151</v>
+        <v>589074.9154446858</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.026664217454404e-06</v>
+        <v>5.600121226655396e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.020833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>502666.2874248005</v>
+        <v>532854.4322864808</v>
       </c>
     </row>
     <row r="13">
@@ -8518,28 +8518,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>390.1425201461282</v>
+        <v>426.6439811325911</v>
       </c>
       <c r="AB13" t="n">
-        <v>533.8102079371693</v>
+        <v>583.7531171896551</v>
       </c>
       <c r="AC13" t="n">
-        <v>482.8641108989775</v>
+        <v>528.0405389877193</v>
       </c>
       <c r="AD13" t="n">
-        <v>390142.5201461282</v>
+        <v>426643.9811325911</v>
       </c>
       <c r="AE13" t="n">
-        <v>533810.2079371692</v>
+        <v>583753.1171896551</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.042127966769976e-06</v>
+        <v>5.628733211521906e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.995833333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>482864.1108989774</v>
+        <v>528040.5389877193</v>
       </c>
     </row>
     <row r="14">
@@ -8624,28 +8624,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>385.6303972429094</v>
+        <v>422.1318582293723</v>
       </c>
       <c r="AB14" t="n">
-        <v>527.6365223201719</v>
+        <v>577.5794315726578</v>
       </c>
       <c r="AC14" t="n">
-        <v>477.2796331724441</v>
+        <v>522.4560612611861</v>
       </c>
       <c r="AD14" t="n">
-        <v>385630.3972429094</v>
+        <v>422131.8582293723</v>
       </c>
       <c r="AE14" t="n">
-        <v>527636.5223201719</v>
+        <v>577579.4315726578</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.058467022650579e-06</v>
+        <v>5.658964742701612e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.96875</v>
       </c>
       <c r="AH14" t="n">
-        <v>477279.6331724441</v>
+        <v>522456.061261186</v>
       </c>
     </row>
     <row r="15">
@@ -8730,28 +8730,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>381.1195042697439</v>
+        <v>417.6209652562068</v>
       </c>
       <c r="AB15" t="n">
-        <v>521.4645195477342</v>
+        <v>571.4074288002199</v>
       </c>
       <c r="AC15" t="n">
-        <v>471.6966776821474</v>
+        <v>516.8731057708893</v>
       </c>
       <c r="AD15" t="n">
-        <v>381119.5042697439</v>
+        <v>417620.9652562068</v>
       </c>
       <c r="AE15" t="n">
-        <v>521464.5195477342</v>
+        <v>571407.4288002199</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.075097847386194e-06</v>
+        <v>5.689736122652387e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.941666666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>471696.6776821474</v>
+        <v>516873.1057708893</v>
       </c>
     </row>
     <row r="16">
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>377.9666221278044</v>
+        <v>414.4680831142672</v>
       </c>
       <c r="AB16" t="n">
-        <v>517.1506071057893</v>
+        <v>567.093516358275</v>
       </c>
       <c r="AC16" t="n">
-        <v>467.7944789890477</v>
+        <v>512.9709070777895</v>
       </c>
       <c r="AD16" t="n">
-        <v>377966.6221278044</v>
+        <v>414468.0831142672</v>
       </c>
       <c r="AE16" t="n">
-        <v>517150.6071057892</v>
+        <v>567093.516358275</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.085601526166583e-06</v>
+        <v>5.709170678410771e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.925</v>
       </c>
       <c r="AH16" t="n">
-        <v>467794.4789890477</v>
+        <v>512970.9070777895</v>
       </c>
     </row>
     <row r="17">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>374.2796016850476</v>
+        <v>410.7810626715106</v>
       </c>
       <c r="AB17" t="n">
-        <v>512.1058630761474</v>
+        <v>562.0487723286333</v>
       </c>
       <c r="AC17" t="n">
-        <v>463.2311982492522</v>
+        <v>508.4076263379941</v>
       </c>
       <c r="AD17" t="n">
-        <v>374279.6016850476</v>
+        <v>410781.0626715106</v>
       </c>
       <c r="AE17" t="n">
-        <v>512105.8630761474</v>
+        <v>562048.7723286332</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.096396973801982e-06</v>
+        <v>5.729145082940222e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.907291666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>463231.1982492522</v>
+        <v>508407.6263379941</v>
       </c>
     </row>
     <row r="18">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>369.9490368053904</v>
+        <v>406.4504977918533</v>
       </c>
       <c r="AB18" t="n">
-        <v>506.1805931567617</v>
+        <v>556.1235024092474</v>
       </c>
       <c r="AC18" t="n">
-        <v>457.8714277748039</v>
+        <v>503.0478558635458</v>
       </c>
       <c r="AD18" t="n">
-        <v>369949.0368053904</v>
+        <v>406450.4977918533</v>
       </c>
       <c r="AE18" t="n">
-        <v>506180.5931567617</v>
+        <v>556123.5024092474</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.109672456704973e-06</v>
+        <v>5.753708202023734e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.886458333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>457871.4277748039</v>
+        <v>503047.8558635458</v>
       </c>
     </row>
     <row r="19">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>368.2427840707746</v>
+        <v>404.7442450572375</v>
       </c>
       <c r="AB19" t="n">
-        <v>503.8460228907023</v>
+        <v>553.788932143188</v>
       </c>
       <c r="AC19" t="n">
-        <v>455.7596656183473</v>
+        <v>500.9360937070893</v>
       </c>
       <c r="AD19" t="n">
-        <v>368242.7840707746</v>
+        <v>404744.2450572376</v>
       </c>
       <c r="AE19" t="n">
-        <v>503846.0228907023</v>
+        <v>553788.9321431881</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.114048989530135e-06</v>
+        <v>5.761805933589727e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.880208333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>455759.6656183473</v>
+        <v>500936.0937070893</v>
       </c>
     </row>
     <row r="20">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>365.2667290222831</v>
+        <v>401.7681900087459</v>
       </c>
       <c r="AB20" t="n">
-        <v>499.7740530790737</v>
+        <v>549.7169623315594</v>
       </c>
       <c r="AC20" t="n">
-        <v>452.076318890495</v>
+        <v>497.252746979237</v>
       </c>
       <c r="AD20" t="n">
-        <v>365266.729022283</v>
+        <v>401768.1900087459</v>
       </c>
       <c r="AE20" t="n">
-        <v>499774.0530790737</v>
+        <v>549716.9623315594</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.118863175637813e-06</v>
+        <v>5.77071343831232e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.871875</v>
       </c>
       <c r="AH20" t="n">
-        <v>452076.3188904951</v>
+        <v>497252.746979237</v>
       </c>
     </row>
     <row r="21">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>362.7418783730667</v>
+        <v>399.2433393595297</v>
       </c>
       <c r="AB21" t="n">
-        <v>496.3194410322666</v>
+        <v>546.2623502847524</v>
       </c>
       <c r="AC21" t="n">
-        <v>448.9514101688569</v>
+        <v>494.1278382575988</v>
       </c>
       <c r="AD21" t="n">
-        <v>362741.8783730667</v>
+        <v>399243.3393595297</v>
       </c>
       <c r="AE21" t="n">
-        <v>496319.4410322667</v>
+        <v>546262.3502847524</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.124844437165534e-06</v>
+        <v>5.781780338119177e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.8625</v>
       </c>
       <c r="AH21" t="n">
-        <v>448951.4101688568</v>
+        <v>494127.8382575988</v>
       </c>
     </row>
     <row r="22">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>358.7350383211941</v>
+        <v>395.236499307657</v>
       </c>
       <c r="AB22" t="n">
-        <v>490.8371057039872</v>
+        <v>540.7800149564729</v>
       </c>
       <c r="AC22" t="n">
-        <v>443.9923012298024</v>
+        <v>489.1687293185444</v>
       </c>
       <c r="AD22" t="n">
-        <v>358735.0383211941</v>
+        <v>395236.499307657</v>
       </c>
       <c r="AE22" t="n">
-        <v>490837.1057039872</v>
+        <v>540780.0149564729</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.136661075793471e-06</v>
+        <v>5.80364421334736e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.844791666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>443992.3012298024</v>
+        <v>489168.7293185444</v>
       </c>
     </row>
     <row r="23">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>356.351138265291</v>
+        <v>392.8525992517539</v>
       </c>
       <c r="AB23" t="n">
-        <v>487.5753484772526</v>
+        <v>537.5182577297383</v>
       </c>
       <c r="AC23" t="n">
-        <v>441.0418415348823</v>
+        <v>486.2182696236242</v>
       </c>
       <c r="AD23" t="n">
-        <v>356351.1382652909</v>
+        <v>392852.5992517539</v>
       </c>
       <c r="AE23" t="n">
-        <v>487575.3484772526</v>
+        <v>537518.2577297383</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.142934106176203e-06</v>
+        <v>5.815250961925282e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.835416666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>441041.8415348823</v>
+        <v>486218.2696236242</v>
       </c>
     </row>
     <row r="24">
@@ -9684,28 +9684,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>354.8505350158865</v>
+        <v>391.3519960023494</v>
       </c>
       <c r="AB24" t="n">
-        <v>485.5221569094744</v>
+        <v>535.4650661619602</v>
       </c>
       <c r="AC24" t="n">
-        <v>439.1846036886604</v>
+        <v>484.3610317774023</v>
       </c>
       <c r="AD24" t="n">
-        <v>354850.5350158865</v>
+        <v>391351.9960023494</v>
       </c>
       <c r="AE24" t="n">
-        <v>485522.1569094744</v>
+        <v>535465.0661619601</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.142642337321192e-06</v>
+        <v>5.814711113154216e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4.835416666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>439184.6036886604</v>
+        <v>484361.0317774023</v>
       </c>
     </row>
     <row r="25">
@@ -9790,28 +9790,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>351.2687369948696</v>
+        <v>387.7701979813324</v>
       </c>
       <c r="AB25" t="n">
-        <v>480.6213828393427</v>
+        <v>530.5642920918285</v>
       </c>
       <c r="AC25" t="n">
-        <v>434.7515526175025</v>
+        <v>479.9279807062445</v>
       </c>
       <c r="AD25" t="n">
-        <v>351268.7369948696</v>
+        <v>387770.1979813324</v>
       </c>
       <c r="AE25" t="n">
-        <v>480621.3828393427</v>
+        <v>530564.2920918285</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.148915367703924e-06</v>
+        <v>5.82631786173214e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>5</v>
+        <v>4.826041666666666</v>
       </c>
       <c r="AH25" t="n">
-        <v>434751.5526175025</v>
+        <v>479927.9807062445</v>
       </c>
     </row>
     <row r="26">
@@ -9896,28 +9896,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>350.0253317512961</v>
+        <v>386.5267927377591</v>
       </c>
       <c r="AB26" t="n">
-        <v>478.9201009299176</v>
+        <v>528.8630101824035</v>
       </c>
       <c r="AC26" t="n">
-        <v>433.2126386657488</v>
+        <v>478.3890667544907</v>
       </c>
       <c r="AD26" t="n">
-        <v>350025.3317512961</v>
+        <v>386526.7927377591</v>
       </c>
       <c r="AE26" t="n">
-        <v>478920.1009299177</v>
+        <v>528863.0101824035</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.152708362819064e-06</v>
+        <v>5.833335895756001e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>4.819791666666667</v>
       </c>
       <c r="AH26" t="n">
-        <v>433212.6386657488</v>
+        <v>478389.0667544907</v>
       </c>
     </row>
     <row r="27">
@@ -10002,28 +10002,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>346.6776433021185</v>
+        <v>383.1791042885814</v>
       </c>
       <c r="AB27" t="n">
-        <v>474.3396459041618</v>
+        <v>524.2825551566476</v>
       </c>
       <c r="AC27" t="n">
-        <v>429.0693358389421</v>
+        <v>474.245763927684</v>
       </c>
       <c r="AD27" t="n">
-        <v>346677.6433021185</v>
+        <v>383179.1042885814</v>
       </c>
       <c r="AE27" t="n">
-        <v>474339.6459041618</v>
+        <v>524282.5551566476</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.158981393201796e-06</v>
+        <v>5.844942644333925e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>5</v>
+        <v>4.810416666666667</v>
       </c>
       <c r="AH27" t="n">
-        <v>429069.3358389421</v>
+        <v>474245.763927684</v>
       </c>
     </row>
     <row r="28">
@@ -10108,28 +10108,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>345.6543095923818</v>
+        <v>382.1557705788447</v>
       </c>
       <c r="AB28" t="n">
-        <v>472.9394755762031</v>
+        <v>522.8823848286887</v>
       </c>
       <c r="AC28" t="n">
-        <v>427.8027958019323</v>
+        <v>472.9792238906742</v>
       </c>
       <c r="AD28" t="n">
-        <v>345654.3095923818</v>
+        <v>382155.7705788447</v>
       </c>
       <c r="AE28" t="n">
-        <v>472939.475576203</v>
+        <v>522882.3848286888</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.159273162056807e-06</v>
+        <v>5.845482493104991e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>5</v>
+        <v>4.810416666666667</v>
       </c>
       <c r="AH28" t="n">
-        <v>427802.7958019323</v>
+        <v>472979.2238906742</v>
       </c>
     </row>
     <row r="29">
@@ -10214,28 +10214,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>343.5068640664184</v>
+        <v>380.0083250528813</v>
       </c>
       <c r="AB29" t="n">
-        <v>470.0012458689696</v>
+        <v>519.9441551214554</v>
       </c>
       <c r="AC29" t="n">
-        <v>425.144986614126</v>
+        <v>470.3214147028679</v>
       </c>
       <c r="AD29" t="n">
-        <v>343506.8640664184</v>
+        <v>380008.3250528813</v>
       </c>
       <c r="AE29" t="n">
-        <v>470001.2458689696</v>
+        <v>519944.1551214554</v>
       </c>
       <c r="AF29" t="n">
-        <v>3.165400308012033e-06</v>
+        <v>5.856819317297381e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>5</v>
+        <v>4.801041666666667</v>
       </c>
       <c r="AH29" t="n">
-        <v>425144.986614126</v>
+        <v>470321.4147028679</v>
       </c>
     </row>
     <row r="30">
@@ -10320,28 +10320,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>345.2292049891786</v>
+        <v>381.7306659756416</v>
       </c>
       <c r="AB30" t="n">
-        <v>472.357828703809</v>
+        <v>522.3007379562948</v>
       </c>
       <c r="AC30" t="n">
-        <v>427.2766604906932</v>
+        <v>472.453088579435</v>
       </c>
       <c r="AD30" t="n">
-        <v>345229.2049891786</v>
+        <v>381730.6659756416</v>
       </c>
       <c r="AE30" t="n">
-        <v>472357.8287038091</v>
+        <v>522300.7379562948</v>
       </c>
       <c r="AF30" t="n">
-        <v>3.164525001447001e-06</v>
+        <v>5.855199770984183e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>5</v>
+        <v>4.802083333333333</v>
       </c>
       <c r="AH30" t="n">
-        <v>427276.6604906932</v>
+        <v>472453.088579435</v>
       </c>
     </row>
     <row r="31">
@@ -10426,28 +10426,28 @@
         <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>346.563769711797</v>
+        <v>383.0652306982599</v>
       </c>
       <c r="AB31" t="n">
-        <v>474.1838390341357</v>
+        <v>524.1267482866215</v>
       </c>
       <c r="AC31" t="n">
-        <v>428.928398957915</v>
+        <v>474.1048270466569</v>
       </c>
       <c r="AD31" t="n">
-        <v>346563.769711797</v>
+        <v>383065.2306982599</v>
       </c>
       <c r="AE31" t="n">
-        <v>474183.8390341357</v>
+        <v>524126.7482866215</v>
       </c>
       <c r="AF31" t="n">
-        <v>3.164962654729518e-06</v>
+        <v>5.856009544140783e-06</v>
       </c>
       <c r="AG31" t="n">
-        <v>5</v>
+        <v>4.801041666666667</v>
       </c>
       <c r="AH31" t="n">
-        <v>428928.398957915</v>
+        <v>474104.8270466569</v>
       </c>
     </row>
   </sheetData>
@@ -10723,28 +10723,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1261.542397473441</v>
+        <v>1332.039329415173</v>
       </c>
       <c r="AB2" t="n">
-        <v>1726.097963545784</v>
+        <v>1822.554975933598</v>
       </c>
       <c r="AC2" t="n">
-        <v>1561.361596498681</v>
+        <v>1648.61288700247</v>
       </c>
       <c r="AD2" t="n">
-        <v>1261542.397473441</v>
+        <v>1332039.329415173</v>
       </c>
       <c r="AE2" t="n">
-        <v>1726097.963545784</v>
+        <v>1822554.975933598</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.485913020629409e-06</v>
+        <v>2.832379541840278e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.57916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1561361.596498681</v>
+        <v>1648612.88700247</v>
       </c>
     </row>
     <row r="3">
@@ -10829,28 +10829,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>572.7013825223719</v>
+        <v>619.6708901986692</v>
       </c>
       <c r="AB3" t="n">
-        <v>783.5952973689359</v>
+        <v>847.8610499200797</v>
       </c>
       <c r="AC3" t="n">
-        <v>708.8100619709513</v>
+        <v>766.9423812961639</v>
       </c>
       <c r="AD3" t="n">
-        <v>572701.3825223718</v>
+        <v>619670.8901986692</v>
       </c>
       <c r="AE3" t="n">
-        <v>783595.2973689359</v>
+        <v>847861.0499200798</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.37767211456595e-06</v>
+        <v>4.532210002203288e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.611458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>708810.0619709513</v>
+        <v>766942.3812961639</v>
       </c>
     </row>
     <row r="4">
@@ -10935,28 +10935,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>463.8398498408948</v>
+        <v>499.1309862390464</v>
       </c>
       <c r="AB4" t="n">
-        <v>634.64614572227</v>
+        <v>682.9330354772761</v>
       </c>
       <c r="AC4" t="n">
-        <v>574.0764083059958</v>
+        <v>617.7548650738595</v>
       </c>
       <c r="AD4" t="n">
-        <v>463839.8498408948</v>
+        <v>499130.9862390464</v>
       </c>
       <c r="AE4" t="n">
-        <v>634646.14572227</v>
+        <v>682933.0354772761</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.698065507090451e-06</v>
+        <v>5.142929255435759e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.826041666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>574076.4083059957</v>
+        <v>617754.8650738595</v>
       </c>
     </row>
     <row r="5">
@@ -11041,28 +11041,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>425.6779988416961</v>
+        <v>460.9691352398478</v>
       </c>
       <c r="AB5" t="n">
-        <v>582.4314176031218</v>
+        <v>630.7183073581277</v>
       </c>
       <c r="AC5" t="n">
-        <v>526.8449805547077</v>
+        <v>570.5234373225715</v>
       </c>
       <c r="AD5" t="n">
-        <v>425677.9988416961</v>
+        <v>460969.1352398478</v>
       </c>
       <c r="AE5" t="n">
-        <v>582431.4176031217</v>
+        <v>630718.3073581278</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.857733999455463e-06</v>
+        <v>5.447282043904885e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.501041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>526844.9805547077</v>
+        <v>570523.4373225714</v>
       </c>
     </row>
     <row r="6">
@@ -11147,28 +11147,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>403.1697149224422</v>
+        <v>438.2902591200016</v>
       </c>
       <c r="AB6" t="n">
-        <v>551.6345905493939</v>
+        <v>599.688068529553</v>
       </c>
       <c r="AC6" t="n">
-        <v>498.9873594513696</v>
+        <v>542.4546809365821</v>
       </c>
       <c r="AD6" t="n">
-        <v>403169.7149224422</v>
+        <v>438290.2591200016</v>
       </c>
       <c r="AE6" t="n">
-        <v>551634.5905493939</v>
+        <v>599688.068529553</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.960205555519588e-06</v>
+        <v>5.642608644444145e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.310416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>498987.3594513696</v>
+        <v>542454.6809365822</v>
       </c>
     </row>
     <row r="7">
@@ -11253,28 +11253,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>388.1174616118939</v>
+        <v>411.6449753858795</v>
       </c>
       <c r="AB7" t="n">
-        <v>531.0394335113527</v>
+        <v>563.2308158175719</v>
       </c>
       <c r="AC7" t="n">
-        <v>480.3577752955545</v>
+        <v>509.4768572553569</v>
       </c>
       <c r="AD7" t="n">
-        <v>388117.4616118939</v>
+        <v>411644.9753858795</v>
       </c>
       <c r="AE7" t="n">
-        <v>531039.4335113527</v>
+        <v>563230.8158175718</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.030381216152604e-06</v>
+        <v>5.776374283988704e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.1875</v>
       </c>
       <c r="AH7" t="n">
-        <v>480357.7752955545</v>
+        <v>509476.8572553569</v>
       </c>
     </row>
     <row r="8">
@@ -11359,28 +11359,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>377.8645378409911</v>
+        <v>401.3920516149766</v>
       </c>
       <c r="AB8" t="n">
-        <v>517.0109308809303</v>
+        <v>549.2023131871495</v>
       </c>
       <c r="AC8" t="n">
-        <v>467.6681332670526</v>
+        <v>496.7872152268549</v>
       </c>
       <c r="AD8" t="n">
-        <v>377864.5378409911</v>
+        <v>401392.0516149766</v>
       </c>
       <c r="AE8" t="n">
-        <v>517010.9308809304</v>
+        <v>549202.3131871495</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.079730551694531e-06</v>
+        <v>5.870441733732942e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.104166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>467668.1332670525</v>
+        <v>496787.2152268549</v>
       </c>
     </row>
     <row r="9">
@@ -11465,28 +11465,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>369.2212438177565</v>
+        <v>392.748757591742</v>
       </c>
       <c r="AB9" t="n">
-        <v>505.1847946831203</v>
+        <v>537.3761769893395</v>
       </c>
       <c r="AC9" t="n">
-        <v>456.970666909875</v>
+        <v>486.0897488696774</v>
       </c>
       <c r="AD9" t="n">
-        <v>369221.2438177565</v>
+        <v>392748.757591742</v>
       </c>
       <c r="AE9" t="n">
-        <v>505184.7946831203</v>
+        <v>537376.1769893394</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.11972313248539e-06</v>
+        <v>5.946673764871239e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.038541666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>456970.6669098751</v>
+        <v>486089.7488696774</v>
       </c>
     </row>
     <row r="10">
@@ -11571,28 +11571,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>350.4239612064401</v>
+        <v>385.6297567500201</v>
       </c>
       <c r="AB10" t="n">
-        <v>479.4655233367358</v>
+        <v>527.6356459695442</v>
       </c>
       <c r="AC10" t="n">
-        <v>433.7060067235654</v>
+        <v>477.2788404594904</v>
       </c>
       <c r="AD10" t="n">
-        <v>350423.9612064401</v>
+        <v>385629.7567500201</v>
       </c>
       <c r="AE10" t="n">
-        <v>479465.5233367358</v>
+        <v>527635.6459695442</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.148095227537017e-06</v>
+        <v>6.000755356773125e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.993749999999999</v>
       </c>
       <c r="AH10" t="n">
-        <v>433706.0067235654</v>
+        <v>477278.8404594904</v>
       </c>
     </row>
     <row r="11">
@@ -11677,28 +11677,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>344.3227519463688</v>
+        <v>379.5285474899488</v>
       </c>
       <c r="AB11" t="n">
-        <v>471.1175796607506</v>
+        <v>519.2877022935589</v>
       </c>
       <c r="AC11" t="n">
-        <v>426.1547790756038</v>
+        <v>469.7276128115286</v>
       </c>
       <c r="AD11" t="n">
-        <v>344322.7519463688</v>
+        <v>379528.5474899489</v>
       </c>
       <c r="AE11" t="n">
-        <v>471117.5796607506</v>
+        <v>519287.702293559</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.170732537418636e-06</v>
+        <v>6.043905563077822e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.958333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>426154.7790756038</v>
+        <v>469727.6128115286</v>
       </c>
     </row>
     <row r="12">
@@ -11783,28 +11783,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>338.7434283989209</v>
+        <v>373.949223942501</v>
       </c>
       <c r="AB12" t="n">
-        <v>463.4837030407494</v>
+        <v>511.6538256735578</v>
       </c>
       <c r="AC12" t="n">
-        <v>419.2494689260023</v>
+        <v>462.8223026619272</v>
       </c>
       <c r="AD12" t="n">
-        <v>338743.4283989209</v>
+        <v>373949.223942501</v>
       </c>
       <c r="AE12" t="n">
-        <v>463483.7030407494</v>
+        <v>511653.8256735578</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.193520762699464e-06</v>
+        <v>6.087343437424549e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.922916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>419249.4689260023</v>
+        <v>462822.3026619272</v>
       </c>
     </row>
     <row r="13">
@@ -11889,28 +11889,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>334.6196117417633</v>
+        <v>369.8254072853434</v>
       </c>
       <c r="AB13" t="n">
-        <v>457.8413151604755</v>
+        <v>506.0114377932839</v>
       </c>
       <c r="AC13" t="n">
-        <v>414.1455826258806</v>
+        <v>457.7184163618055</v>
       </c>
       <c r="AD13" t="n">
-        <v>334619.6117417633</v>
+        <v>369825.4072853434</v>
       </c>
       <c r="AE13" t="n">
-        <v>457841.3151604754</v>
+        <v>506011.4377932839</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.206801317830013e-06</v>
+        <v>6.112658225123304e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.902083333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>414145.5826258806</v>
+        <v>457718.4163618055</v>
       </c>
     </row>
     <row r="14">
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>329.5092321036557</v>
+        <v>364.7150276472358</v>
       </c>
       <c r="AB14" t="n">
-        <v>450.8490682855789</v>
+        <v>499.0191909183872</v>
       </c>
       <c r="AC14" t="n">
-        <v>407.820665979044</v>
+        <v>451.3934997149689</v>
       </c>
       <c r="AD14" t="n">
-        <v>329509.2321036558</v>
+        <v>364715.0276472358</v>
       </c>
       <c r="AE14" t="n">
-        <v>450849.0682855789</v>
+        <v>499019.1909183872</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.223100180944779e-06</v>
+        <v>6.143726373662686e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.877083333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>407820.6659790439</v>
+        <v>451393.4997149688</v>
       </c>
     </row>
     <row r="15">
@@ -12101,28 +12101,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>325.3862784501015</v>
+        <v>360.5920739936816</v>
       </c>
       <c r="AB15" t="n">
-        <v>445.207861204908</v>
+        <v>493.3779838377163</v>
       </c>
       <c r="AC15" t="n">
-        <v>402.7178477846684</v>
+        <v>446.2906815205934</v>
       </c>
       <c r="AD15" t="n">
-        <v>325386.2784501015</v>
+        <v>360592.0739936816</v>
       </c>
       <c r="AE15" t="n">
-        <v>445207.861204908</v>
+        <v>493377.9838377163</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.234117005087166e-06</v>
+        <v>6.164726140730972e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.860416666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>402717.8477846684</v>
+        <v>446290.6815205934</v>
       </c>
     </row>
     <row r="16">
@@ -12207,28 +12207,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>321.9243722366976</v>
+        <v>357.1301677802776</v>
       </c>
       <c r="AB16" t="n">
-        <v>440.4711283952057</v>
+        <v>488.641251028014</v>
       </c>
       <c r="AC16" t="n">
-        <v>398.4331821062778</v>
+        <v>442.0060158422028</v>
       </c>
       <c r="AD16" t="n">
-        <v>321924.3722366976</v>
+        <v>357130.1677802777</v>
       </c>
       <c r="AE16" t="n">
-        <v>440471.1283952057</v>
+        <v>488641.2510280141</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.245133829229554e-06</v>
+        <v>6.185725907799258e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.844791666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>398433.1821062778</v>
+        <v>442006.0158422028</v>
       </c>
     </row>
     <row r="17">
@@ -12313,28 +12313,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>316.9362128641538</v>
+        <v>352.1420084077339</v>
       </c>
       <c r="AB17" t="n">
-        <v>433.6461086796309</v>
+        <v>481.8162313124394</v>
       </c>
       <c r="AC17" t="n">
-        <v>392.2595326933824</v>
+        <v>435.8323664293072</v>
       </c>
       <c r="AD17" t="n">
-        <v>316936.2128641538</v>
+        <v>352142.0084077339</v>
       </c>
       <c r="AE17" t="n">
-        <v>433646.1086796309</v>
+        <v>481816.2313124394</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.255245160976677e-06</v>
+        <v>6.204999666615355e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.829166666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>392259.5326933824</v>
+        <v>435832.3664293071</v>
       </c>
     </row>
     <row r="18">
@@ -12419,28 +12419,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>314.8991985039748</v>
+        <v>350.1049940475548</v>
       </c>
       <c r="AB18" t="n">
-        <v>430.858975765303</v>
+        <v>479.0290983981113</v>
       </c>
       <c r="AC18" t="n">
-        <v>389.7383998326322</v>
+        <v>433.311233568557</v>
       </c>
       <c r="AD18" t="n">
-        <v>314899.1985039748</v>
+        <v>350104.9940475549</v>
       </c>
       <c r="AE18" t="n">
-        <v>430858.975765303</v>
+        <v>479029.0983981114</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.260979946146686e-06</v>
+        <v>6.215931052212545e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.820833333333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>389738.3998326322</v>
+        <v>433311.233568557</v>
       </c>
     </row>
     <row r="19">
@@ -12525,28 +12525,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>310.2388717785623</v>
+        <v>345.4446673221425</v>
       </c>
       <c r="AB19" t="n">
-        <v>424.482511140489</v>
+        <v>472.6526337732973</v>
       </c>
       <c r="AC19" t="n">
-        <v>383.970496042186</v>
+        <v>427.543329778111</v>
       </c>
       <c r="AD19" t="n">
-        <v>310238.8717785623</v>
+        <v>345444.6673221425</v>
       </c>
       <c r="AE19" t="n">
-        <v>424482.511140489</v>
+        <v>472652.6337732973</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.267167477514328e-06</v>
+        <v>6.227725441935828e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.811458333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>383970.496042186</v>
+        <v>427543.329778111</v>
       </c>
     </row>
     <row r="20">
@@ -12631,28 +12631,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>308.8544670063149</v>
+        <v>344.060262549895</v>
       </c>
       <c r="AB20" t="n">
-        <v>422.588307455472</v>
+        <v>470.7584300882803</v>
       </c>
       <c r="AC20" t="n">
-        <v>382.2570724983355</v>
+        <v>425.8299062342604</v>
       </c>
       <c r="AD20" t="n">
-        <v>308854.4670063149</v>
+        <v>344060.262549895</v>
       </c>
       <c r="AE20" t="n">
-        <v>422588.3074554719</v>
+        <v>470758.4300882803</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.271996770289073e-06</v>
+        <v>6.23693081928083e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.804166666666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>382257.0724983355</v>
+        <v>425829.9062342604</v>
       </c>
     </row>
     <row r="21">
@@ -12737,28 +12737,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>307.452702610041</v>
+        <v>342.6584981536211</v>
       </c>
       <c r="AB21" t="n">
-        <v>420.6703515670093</v>
+        <v>468.8404741998178</v>
       </c>
       <c r="AC21" t="n">
-        <v>380.5221636279998</v>
+        <v>424.0949973639247</v>
       </c>
       <c r="AD21" t="n">
-        <v>307452.702610041</v>
+        <v>342658.4981536211</v>
       </c>
       <c r="AE21" t="n">
-        <v>420670.3515670093</v>
+        <v>468840.4741998177</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.278033386257505e-06</v>
+        <v>6.248437540962082e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.795833333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>380522.1636279998</v>
+        <v>424094.9973639247</v>
       </c>
     </row>
     <row r="22">
@@ -12843,28 +12843,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>308.8831814054899</v>
+        <v>344.08897694907</v>
       </c>
       <c r="AB22" t="n">
-        <v>422.627595763213</v>
+        <v>470.7977183960215</v>
       </c>
       <c r="AC22" t="n">
-        <v>382.2926111851273</v>
+        <v>425.8654449210522</v>
       </c>
       <c r="AD22" t="n">
-        <v>308883.1814054899</v>
+        <v>344088.97694907</v>
       </c>
       <c r="AE22" t="n">
-        <v>422627.595763213</v>
+        <v>470797.7183960215</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.277882470858295e-06</v>
+        <v>6.248149872920052e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.795833333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>382292.6111851273</v>
+        <v>425865.4449210522</v>
       </c>
     </row>
   </sheetData>
@@ -13140,28 +13140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>432.2783543631042</v>
+        <v>474.0467834732961</v>
       </c>
       <c r="AB2" t="n">
-        <v>591.4623152146469</v>
+        <v>648.6117226162529</v>
       </c>
       <c r="AC2" t="n">
-        <v>535.0139819731331</v>
+        <v>586.7091301420271</v>
       </c>
       <c r="AD2" t="n">
-        <v>432278.3543631042</v>
+        <v>474046.7834732961</v>
       </c>
       <c r="AE2" t="n">
-        <v>591462.3152146469</v>
+        <v>648611.722616253</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.575335090720415e-06</v>
+        <v>5.484789770484517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.811458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>535013.9819731332</v>
+        <v>586709.1301420272</v>
       </c>
     </row>
     <row r="3">
@@ -13246,28 +13246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>299.083404827739</v>
+        <v>330.3031401007195</v>
       </c>
       <c r="AB3" t="n">
-        <v>409.2191091139044</v>
+        <v>451.9353282319103</v>
       </c>
       <c r="AC3" t="n">
-        <v>370.1638116826995</v>
+        <v>408.8032548006731</v>
       </c>
       <c r="AD3" t="n">
-        <v>299083.404827739</v>
+        <v>330303.1401007195</v>
       </c>
       <c r="AE3" t="n">
-        <v>409219.1091139044</v>
+        <v>451935.3282319103</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.202286803448598e-06</v>
+        <v>6.82003284349268e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.478125000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>370163.8116826995</v>
+        <v>408803.2548006731</v>
       </c>
     </row>
     <row r="4">
@@ -13352,28 +13352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>268.832158151889</v>
+        <v>289.759132642822</v>
       </c>
       <c r="AB4" t="n">
-        <v>367.828018821194</v>
+        <v>396.4612285526442</v>
       </c>
       <c r="AC4" t="n">
-        <v>332.7230289547652</v>
+        <v>358.6235253364081</v>
       </c>
       <c r="AD4" t="n">
-        <v>268832.158151889</v>
+        <v>289759.1326428219</v>
       </c>
       <c r="AE4" t="n">
-        <v>367828.018821194</v>
+        <v>396461.2285526443</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.406555518876824e-06</v>
+        <v>7.255071749632595e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.148958333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>332723.0289547652</v>
+        <v>358623.5253364081</v>
       </c>
     </row>
     <row r="5">
@@ -13458,28 +13458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>241.2678950106078</v>
+        <v>272.5728816296118</v>
       </c>
       <c r="AB5" t="n">
-        <v>330.1133779416721</v>
+        <v>372.9462417124868</v>
       </c>
       <c r="AC5" t="n">
-        <v>298.6078204680529</v>
+        <v>337.352775836784</v>
       </c>
       <c r="AD5" t="n">
-        <v>241267.8950106078</v>
+        <v>272572.8816296118</v>
       </c>
       <c r="AE5" t="n">
-        <v>330113.377941672</v>
+        <v>372946.2417124868</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.51652045801502e-06</v>
+        <v>7.489268291849714e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.988541666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>298607.8204680529</v>
+        <v>337352.775836784</v>
       </c>
     </row>
     <row r="6">
@@ -13564,28 +13564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>228.9118065646117</v>
+        <v>260.2167931836156</v>
       </c>
       <c r="AB6" t="n">
-        <v>313.2072326177185</v>
+        <v>356.0400963885245</v>
       </c>
       <c r="AC6" t="n">
-        <v>283.3151739258881</v>
+        <v>322.0601292946167</v>
       </c>
       <c r="AD6" t="n">
-        <v>228911.8065646117</v>
+        <v>260216.7931836155</v>
       </c>
       <c r="AE6" t="n">
-        <v>313207.2326177185</v>
+        <v>356040.0963885246</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.582027902616487e-06</v>
+        <v>7.628782005360371e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.896875</v>
       </c>
       <c r="AH6" t="n">
-        <v>283315.1739258881</v>
+        <v>322060.1292946168</v>
       </c>
     </row>
     <row r="7">
@@ -13670,28 +13670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>225.0761098292206</v>
+        <v>256.3810964482212</v>
       </c>
       <c r="AB7" t="n">
-        <v>307.959063125362</v>
+        <v>350.7919268959952</v>
       </c>
       <c r="AC7" t="n">
-        <v>278.5678823640283</v>
+        <v>317.3128377327077</v>
       </c>
       <c r="AD7" t="n">
-        <v>225076.1098292206</v>
+        <v>256381.0964482212</v>
       </c>
       <c r="AE7" t="n">
-        <v>307959.063125362</v>
+        <v>350791.9268959952</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.605940645890031e-06</v>
+        <v>7.679709890497938e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.864583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>278567.8823640283</v>
+        <v>317312.8377327077</v>
       </c>
     </row>
     <row r="8">
@@ -13776,28 +13776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>226.3973956203533</v>
+        <v>257.7023822393539</v>
       </c>
       <c r="AB8" t="n">
-        <v>309.766904635804</v>
+        <v>352.5997684064372</v>
       </c>
       <c r="AC8" t="n">
-        <v>280.2031860180358</v>
+        <v>318.9481413867152</v>
       </c>
       <c r="AD8" t="n">
-        <v>226397.3956203533</v>
+        <v>257702.382239354</v>
       </c>
       <c r="AE8" t="n">
-        <v>309766.904635804</v>
+        <v>352599.7684064372</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.606277445091067e-06</v>
+        <v>7.680427184654804e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.864583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>280203.1860180358</v>
+        <v>318948.1413867152</v>
       </c>
     </row>
   </sheetData>
@@ -14073,28 +14073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>632.1228896303555</v>
+        <v>676.0100738151568</v>
       </c>
       <c r="AB2" t="n">
-        <v>864.8984248859574</v>
+        <v>924.946806453521</v>
       </c>
       <c r="AC2" t="n">
-        <v>782.353733107404</v>
+        <v>836.6711814165923</v>
       </c>
       <c r="AD2" t="n">
-        <v>632122.8896303555</v>
+        <v>676010.0738151568</v>
       </c>
       <c r="AE2" t="n">
-        <v>864898.4248859574</v>
+        <v>924946.806453521</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.140408533710827e-06</v>
+        <v>4.345769330433242e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.840624999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>782353.733107404</v>
+        <v>836671.1814165923</v>
       </c>
     </row>
     <row r="3">
@@ -14179,28 +14179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>382.9113435647764</v>
+        <v>415.8267317033774</v>
       </c>
       <c r="AB3" t="n">
-        <v>523.9161931215682</v>
+        <v>568.9524792972411</v>
       </c>
       <c r="AC3" t="n">
-        <v>473.9143669710403</v>
+        <v>514.6524532029315</v>
       </c>
       <c r="AD3" t="n">
-        <v>382911.3435647764</v>
+        <v>415826.7317033774</v>
       </c>
       <c r="AE3" t="n">
-        <v>523916.1931215682</v>
+        <v>568952.4792972411</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.874069565061053e-06</v>
+        <v>5.835354873922101e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.839583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>473914.3669710403</v>
+        <v>514652.4532029314</v>
       </c>
     </row>
     <row r="4">
@@ -14285,28 +14285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>335.7328864206863</v>
+        <v>368.4776823586951</v>
       </c>
       <c r="AB4" t="n">
-        <v>459.3645466903905</v>
+        <v>504.1674210912163</v>
       </c>
       <c r="AC4" t="n">
-        <v>415.5234390764493</v>
+        <v>456.0503900256895</v>
       </c>
       <c r="AD4" t="n">
-        <v>335732.8864206863</v>
+        <v>368477.6823586951</v>
       </c>
       <c r="AE4" t="n">
-        <v>459364.5466903904</v>
+        <v>504167.4210912163</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.126033959666181e-06</v>
+        <v>6.346929707039487e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.368749999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>415523.4390764493</v>
+        <v>456050.3900256895</v>
       </c>
     </row>
     <row r="5">
@@ -14391,28 +14391,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>313.1715571754145</v>
+        <v>335.1152387763663</v>
       </c>
       <c r="AB5" t="n">
-        <v>428.4951406814104</v>
+        <v>458.5194539347407</v>
       </c>
       <c r="AC5" t="n">
-        <v>387.6001658514829</v>
+        <v>414.7590007873037</v>
       </c>
       <c r="AD5" t="n">
-        <v>313171.5571754145</v>
+        <v>335115.2387763662</v>
       </c>
       <c r="AE5" t="n">
-        <v>428495.1406814104</v>
+        <v>458519.4539347407</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.256688131037511e-06</v>
+        <v>6.612202846207135e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.153125</v>
       </c>
       <c r="AH5" t="n">
-        <v>387600.1658514829</v>
+        <v>414759.0007873037</v>
       </c>
     </row>
     <row r="6">
@@ -14497,28 +14497,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>299.31769075911</v>
+        <v>321.2613723600617</v>
       </c>
       <c r="AB6" t="n">
-        <v>409.539669461172</v>
+        <v>439.5639827145022</v>
       </c>
       <c r="AC6" t="n">
-        <v>370.4537782003331</v>
+        <v>397.6126131361538</v>
       </c>
       <c r="AD6" t="n">
-        <v>299317.69075911</v>
+        <v>321261.3723600617</v>
       </c>
       <c r="AE6" t="n">
-        <v>409539.669461172</v>
+        <v>439563.9827145022</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.335145074881946e-06</v>
+        <v>6.771497567260949e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.032291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>370453.7782003331</v>
+        <v>397612.6131361537</v>
       </c>
     </row>
     <row r="7">
@@ -14603,28 +14603,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>278.0436698730977</v>
+        <v>310.8737171571271</v>
       </c>
       <c r="AB7" t="n">
-        <v>380.4316155413676</v>
+        <v>425.3511345948427</v>
       </c>
       <c r="AC7" t="n">
-        <v>344.1237560932246</v>
+        <v>384.756219293177</v>
       </c>
       <c r="AD7" t="n">
-        <v>278043.6698730977</v>
+        <v>310873.7171571271</v>
       </c>
       <c r="AE7" t="n">
-        <v>380431.6155413676</v>
+        <v>425351.1345948427</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.388147815179317e-06</v>
+        <v>6.879111454790118e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.953125</v>
       </c>
       <c r="AH7" t="n">
-        <v>344123.7560932246</v>
+        <v>384756.219293177</v>
       </c>
     </row>
     <row r="8">
@@ -14709,28 +14709,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>269.3979996152443</v>
+        <v>302.2280468992737</v>
       </c>
       <c r="AB8" t="n">
-        <v>368.6022280745202</v>
+        <v>413.5217471279952</v>
       </c>
       <c r="AC8" t="n">
-        <v>333.4233487635634</v>
+        <v>374.0558119635158</v>
       </c>
       <c r="AD8" t="n">
-        <v>269397.9996152443</v>
+        <v>302228.0468992738</v>
       </c>
       <c r="AE8" t="n">
-        <v>368602.2280745202</v>
+        <v>413521.7471279952</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.427295735824487e-06</v>
+        <v>6.958595268375493e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.896875</v>
       </c>
       <c r="AH8" t="n">
-        <v>333423.3487635634</v>
+        <v>374055.8119635158</v>
       </c>
     </row>
     <row r="9">
@@ -14815,28 +14815,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>262.4294605472122</v>
+        <v>295.2595078312416</v>
       </c>
       <c r="AB9" t="n">
-        <v>359.0675654913921</v>
+        <v>403.9870845448672</v>
       </c>
       <c r="AC9" t="n">
-        <v>324.7986609953862</v>
+        <v>365.4311241953386</v>
       </c>
       <c r="AD9" t="n">
-        <v>262429.4605472122</v>
+        <v>295259.5078312416</v>
       </c>
       <c r="AE9" t="n">
-        <v>359067.5654913922</v>
+        <v>403987.0845448672</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.450977811276503e-06</v>
+        <v>7.006678069186398e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.8625</v>
       </c>
       <c r="AH9" t="n">
-        <v>324798.6609953862</v>
+        <v>365431.1241953386</v>
       </c>
     </row>
     <row r="10">
@@ -14921,28 +14921,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>256.8733320989851</v>
+        <v>289.7033793830177</v>
       </c>
       <c r="AB10" t="n">
-        <v>351.4654254292742</v>
+        <v>396.3849444829199</v>
       </c>
       <c r="AC10" t="n">
-        <v>317.922058511232</v>
+        <v>358.554521711233</v>
       </c>
       <c r="AD10" t="n">
-        <v>256873.3320989851</v>
+        <v>289703.3793830177</v>
       </c>
       <c r="AE10" t="n">
-        <v>351465.4254292742</v>
+        <v>396384.9444829199</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.471115630538422e-06</v>
+        <v>7.04756480456982e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.834375</v>
       </c>
       <c r="AH10" t="n">
-        <v>317922.058511232</v>
+        <v>358554.521711233</v>
       </c>
     </row>
     <row r="11">
@@ -15027,28 +15027,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>254.7919436300718</v>
+        <v>287.6219909141045</v>
       </c>
       <c r="AB11" t="n">
-        <v>348.61757790173</v>
+        <v>393.5370969553742</v>
       </c>
       <c r="AC11" t="n">
-        <v>315.3460055547365</v>
+        <v>355.978468754737</v>
       </c>
       <c r="AD11" t="n">
-        <v>254791.9436300718</v>
+        <v>287621.9909141044</v>
       </c>
       <c r="AE11" t="n">
-        <v>348617.57790173</v>
+        <v>393537.0969553742</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.480942886338238e-06</v>
+        <v>7.067517531436931e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.820833333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>315346.0055547365</v>
+        <v>355978.4687547371</v>
       </c>
     </row>
     <row r="12">
@@ -15133,28 +15133,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>256.1130699477638</v>
+        <v>288.9431172317965</v>
       </c>
       <c r="AB12" t="n">
-        <v>350.4252012135749</v>
+        <v>395.34472026722</v>
       </c>
       <c r="AC12" t="n">
-        <v>316.9811118347148</v>
+        <v>357.6135750347156</v>
       </c>
       <c r="AD12" t="n">
-        <v>256113.0699477639</v>
+        <v>288943.1172317965</v>
       </c>
       <c r="AE12" t="n">
-        <v>350425.2012135749</v>
+        <v>395344.72026722</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.48158729655462e-06</v>
+        <v>7.068825906969199e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.819791666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>316981.1118347148</v>
+        <v>357613.5750347156</v>
       </c>
     </row>
   </sheetData>
@@ -15430,28 +15430,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>324.1757368053443</v>
+        <v>354.2299503503042</v>
       </c>
       <c r="AB2" t="n">
-        <v>443.5515447212231</v>
+        <v>484.6730455917615</v>
       </c>
       <c r="AC2" t="n">
-        <v>401.2196078215316</v>
+        <v>438.4165303633749</v>
       </c>
       <c r="AD2" t="n">
-        <v>324175.7368053443</v>
+        <v>354229.9503503042</v>
       </c>
       <c r="AE2" t="n">
-        <v>443551.5447212231</v>
+        <v>484673.0455917615</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.948066439576624e-06</v>
+        <v>6.564768132686728e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.180208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>401219.6078215316</v>
+        <v>438416.5303633749</v>
       </c>
     </row>
     <row r="3">
@@ -15536,28 +15536,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>240.8414932685149</v>
+        <v>260.934559371056</v>
       </c>
       <c r="AB3" t="n">
-        <v>329.5299562666237</v>
+        <v>357.0221757517899</v>
       </c>
       <c r="AC3" t="n">
-        <v>298.0800797388335</v>
+        <v>322.9484803818091</v>
       </c>
       <c r="AD3" t="n">
-        <v>240841.4932685149</v>
+        <v>260934.5593710559</v>
       </c>
       <c r="AE3" t="n">
-        <v>329529.9562666237</v>
+        <v>357022.1757517899</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.474157080905913e-06</v>
+        <v>7.736269232777003e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.24375</v>
       </c>
       <c r="AH3" t="n">
-        <v>298080.0797388335</v>
+        <v>322948.4803818091</v>
       </c>
     </row>
     <row r="4">
@@ -15642,28 +15642,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>206.9242328123626</v>
+        <v>236.978356848771</v>
       </c>
       <c r="AB4" t="n">
-        <v>283.1228641866132</v>
+        <v>324.2442425875822</v>
       </c>
       <c r="AC4" t="n">
-        <v>256.1020153941617</v>
+        <v>293.2988271547724</v>
       </c>
       <c r="AD4" t="n">
-        <v>206924.2328123626</v>
+        <v>236978.356848771</v>
       </c>
       <c r="AE4" t="n">
-        <v>283122.8641866132</v>
+        <v>324244.2425875822</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.655000738862856e-06</v>
+        <v>8.138972735933034e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>256102.0153941617</v>
+        <v>293298.8271547724</v>
       </c>
     </row>
     <row r="5">
@@ -15748,28 +15748,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>201.9380687407875</v>
+        <v>231.9921927771959</v>
       </c>
       <c r="AB5" t="n">
-        <v>276.3005745298537</v>
+        <v>317.4219529308227</v>
       </c>
       <c r="AC5" t="n">
-        <v>249.9308354870975</v>
+        <v>287.1276472477081</v>
       </c>
       <c r="AD5" t="n">
-        <v>201938.0687407875</v>
+        <v>231992.1927771959</v>
       </c>
       <c r="AE5" t="n">
-        <v>276300.5745298537</v>
+        <v>317421.9529308227</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.691729141349275e-06</v>
+        <v>8.220759714330295e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.935416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>249930.8354870974</v>
+        <v>287127.6472477081</v>
       </c>
     </row>
   </sheetData>
@@ -16045,28 +16045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1426.112188698807</v>
+        <v>1485.498429845317</v>
       </c>
       <c r="AB2" t="n">
-        <v>1951.269612207111</v>
+        <v>2032.52448727982</v>
       </c>
       <c r="AC2" t="n">
-        <v>1765.043179042164</v>
+        <v>1838.543202879867</v>
       </c>
       <c r="AD2" t="n">
-        <v>1426112.188698807</v>
+        <v>1485498.429845317</v>
       </c>
       <c r="AE2" t="n">
-        <v>1951269.612207111</v>
+        <v>2032524.48727982</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.391653352857514e-06</v>
+        <v>2.631287598900132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.19479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1765043.179042164</v>
+        <v>1838543.202879867</v>
       </c>
     </row>
     <row r="3">
@@ -16151,28 +16151,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>605.6653827669455</v>
+        <v>653.0889632227414</v>
       </c>
       <c r="AB3" t="n">
-        <v>828.6980967726155</v>
+        <v>893.585131732946</v>
       </c>
       <c r="AC3" t="n">
-        <v>749.60831350172</v>
+        <v>808.3026209149623</v>
       </c>
       <c r="AD3" t="n">
-        <v>605665.3827669455</v>
+        <v>653088.9632227414</v>
       </c>
       <c r="AE3" t="n">
-        <v>828698.0967726154</v>
+        <v>893585.131732946</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.307258062819223e-06</v>
+        <v>4.362479719315673e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.752083333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>749608.31350172</v>
+        <v>808302.6209149623</v>
       </c>
     </row>
     <row r="4">
@@ -16257,28 +16257,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>487.7231660676908</v>
+        <v>523.3548570504663</v>
       </c>
       <c r="AB4" t="n">
-        <v>667.324352641321</v>
+        <v>716.0772042032172</v>
       </c>
       <c r="AC4" t="n">
-        <v>603.6358530208438</v>
+        <v>647.7358008547297</v>
       </c>
       <c r="AD4" t="n">
-        <v>487723.1660676908</v>
+        <v>523354.8570504664</v>
       </c>
       <c r="AE4" t="n">
-        <v>667324.3526413209</v>
+        <v>716077.2042032172</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.631054893441095e-06</v>
+        <v>4.974703002670729e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.920833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>603635.8530208438</v>
+        <v>647735.8008547297</v>
       </c>
     </row>
     <row r="5">
@@ -16363,28 +16363,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>443.5212268893978</v>
+        <v>479.1529178721732</v>
       </c>
       <c r="AB5" t="n">
-        <v>606.8453094056515</v>
+        <v>655.5981609675479</v>
       </c>
       <c r="AC5" t="n">
-        <v>548.9288447887166</v>
+        <v>593.0287926226023</v>
       </c>
       <c r="AD5" t="n">
-        <v>443521.2268893978</v>
+        <v>479152.9178721732</v>
       </c>
       <c r="AE5" t="n">
-        <v>606845.3094056515</v>
+        <v>655598.1609675479</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.804095509159111e-06</v>
+        <v>5.301881912066478e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.556250000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>548928.8447887165</v>
+        <v>593028.7926226023</v>
       </c>
     </row>
     <row r="6">
@@ -16469,28 +16469,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>419.8370970750675</v>
+        <v>455.298195857251</v>
       </c>
       <c r="AB6" t="n">
-        <v>574.4396381236209</v>
+        <v>622.9590779106701</v>
       </c>
       <c r="AC6" t="n">
-        <v>519.6159252921975</v>
+        <v>563.5047378434323</v>
       </c>
       <c r="AD6" t="n">
-        <v>419837.0970750675</v>
+        <v>455298.1958572509</v>
       </c>
       <c r="AE6" t="n">
-        <v>574439.6381236209</v>
+        <v>622959.0779106701</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.908787325064566e-06</v>
+        <v>5.499829393982662e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.35625</v>
       </c>
       <c r="AH6" t="n">
-        <v>519615.9252921975</v>
+        <v>563504.7378434322</v>
       </c>
     </row>
     <row r="7">
@@ -16575,28 +16575,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>403.9318144396088</v>
+        <v>427.6863646033435</v>
       </c>
       <c r="AB7" t="n">
-        <v>552.6773287302393</v>
+        <v>585.1793522410519</v>
       </c>
       <c r="AC7" t="n">
-        <v>499.9305801637271</v>
+        <v>529.3306561675444</v>
       </c>
       <c r="AD7" t="n">
-        <v>403931.8144396088</v>
+        <v>427686.3646033435</v>
       </c>
       <c r="AE7" t="n">
-        <v>552677.3287302393</v>
+        <v>585179.3522410518</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.980426439091299e-06</v>
+        <v>5.635282028036736e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.227083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>499930.5801637272</v>
+        <v>529330.6561675443</v>
       </c>
     </row>
     <row r="8">
@@ -16681,28 +16681,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>391.9756496611689</v>
+        <v>415.7301998249038</v>
       </c>
       <c r="AB8" t="n">
-        <v>536.3183766116147</v>
+        <v>568.8204001224273</v>
       </c>
       <c r="AC8" t="n">
-        <v>485.1329034753706</v>
+        <v>514.5329794791878</v>
       </c>
       <c r="AD8" t="n">
-        <v>391975.6496611689</v>
+        <v>415730.1998249037</v>
       </c>
       <c r="AE8" t="n">
-        <v>536318.3766116147</v>
+        <v>568820.4001224273</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.035165302836151e-06</v>
+        <v>5.738780282867199e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.133333333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>485132.9034753706</v>
+        <v>514532.9794791879</v>
       </c>
     </row>
     <row r="9">
@@ -16787,28 +16787,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>383.033824987952</v>
+        <v>406.7883751516869</v>
       </c>
       <c r="AB9" t="n">
-        <v>524.0837776082562</v>
+        <v>556.5858011190687</v>
       </c>
       <c r="AC9" t="n">
-        <v>474.0659574295251</v>
+        <v>503.4660334333423</v>
       </c>
       <c r="AD9" t="n">
-        <v>383033.824987952</v>
+        <v>406788.3751516868</v>
       </c>
       <c r="AE9" t="n">
-        <v>524083.7776082562</v>
+        <v>556585.8011190688</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.073901274721169e-06</v>
+        <v>5.812020851176186e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.06875</v>
       </c>
       <c r="AH9" t="n">
-        <v>474065.9574295251</v>
+        <v>503466.0334333422</v>
       </c>
     </row>
     <row r="10">
@@ -16893,28 +16893,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>375.8784695578614</v>
+        <v>399.6330197215961</v>
       </c>
       <c r="AB10" t="n">
-        <v>514.2935046368035</v>
+        <v>546.7955281476161</v>
       </c>
       <c r="AC10" t="n">
-        <v>465.2100543697334</v>
+        <v>494.6101303735506</v>
       </c>
       <c r="AD10" t="n">
-        <v>375878.4695578614</v>
+        <v>399633.0197215961</v>
       </c>
       <c r="AE10" t="n">
-        <v>514293.5046368035</v>
+        <v>546795.5281476161</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.104561020807767e-06</v>
+        <v>5.869991185165926e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.017708333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>465210.0543697334</v>
+        <v>494610.1303735506</v>
       </c>
     </row>
     <row r="11">
@@ -16999,28 +16999,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>359.1320884025438</v>
+        <v>394.6784385307478</v>
       </c>
       <c r="AB11" t="n">
-        <v>491.3803671419032</v>
+        <v>540.0164515816018</v>
       </c>
       <c r="AC11" t="n">
-        <v>444.483714558556</v>
+        <v>488.478039360503</v>
       </c>
       <c r="AD11" t="n">
-        <v>359132.0884025438</v>
+        <v>394678.4385307478</v>
       </c>
       <c r="AE11" t="n">
-        <v>491380.3671419032</v>
+        <v>540016.4515816019</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.125349824251851e-06</v>
+        <v>5.909297899432141e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.984375</v>
       </c>
       <c r="AH11" t="n">
-        <v>444483.714558556</v>
+        <v>488478.039360503</v>
       </c>
     </row>
     <row r="12">
@@ -17105,28 +17105,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>353.8261258308357</v>
+        <v>389.3724759590397</v>
       </c>
       <c r="AB12" t="n">
-        <v>484.1205150687441</v>
+        <v>532.7565995084428</v>
       </c>
       <c r="AC12" t="n">
-        <v>437.9167325779928</v>
+        <v>481.9110573799398</v>
       </c>
       <c r="AD12" t="n">
-        <v>353826.1258308357</v>
+        <v>389372.4759590396</v>
       </c>
       <c r="AE12" t="n">
-        <v>484120.5150687441</v>
+        <v>532756.5995084428</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.143296992692786e-06</v>
+        <v>5.943231753474915e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.95625</v>
       </c>
       <c r="AH12" t="n">
-        <v>437916.7325779928</v>
+        <v>481911.0573799398</v>
       </c>
     </row>
     <row r="13">
@@ -17211,28 +17211,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>347.9901935647004</v>
+        <v>383.5365436929043</v>
       </c>
       <c r="AB13" t="n">
-        <v>476.1355350790571</v>
+        <v>524.7716195187559</v>
       </c>
       <c r="AC13" t="n">
-        <v>430.6938278715318</v>
+        <v>474.6881526734788</v>
       </c>
       <c r="AD13" t="n">
-        <v>347990.1935647004</v>
+        <v>383536.5436929043</v>
       </c>
       <c r="AE13" t="n">
-        <v>476135.5350790572</v>
+        <v>524771.6195187558</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.167226550614033e-06</v>
+        <v>5.988476892198614e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.91875</v>
       </c>
       <c r="AH13" t="n">
-        <v>430693.8278715318</v>
+        <v>474688.1526734788</v>
       </c>
     </row>
     <row r="14">
@@ -17317,28 +17317,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>345.0567872726872</v>
+        <v>380.6031374008911</v>
       </c>
       <c r="AB14" t="n">
-        <v>472.1219191775726</v>
+        <v>520.7580036172711</v>
       </c>
       <c r="AC14" t="n">
-        <v>427.0632658385395</v>
+        <v>471.0575906404866</v>
       </c>
       <c r="AD14" t="n">
-        <v>345056.7872726872</v>
+        <v>380603.1374008911</v>
       </c>
       <c r="AE14" t="n">
-        <v>472121.9191775726</v>
+        <v>520758.0036172711</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.176648814045523e-06</v>
+        <v>6.00629216557107e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.904166666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>427063.2658385395</v>
+        <v>471057.5906404866</v>
       </c>
     </row>
     <row r="15">
@@ -17423,28 +17423,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>339.1873572160067</v>
+        <v>374.7337073442106</v>
       </c>
       <c r="AB15" t="n">
-        <v>464.0911060330434</v>
+        <v>512.727190472742</v>
       </c>
       <c r="AC15" t="n">
-        <v>419.7989022292072</v>
+        <v>463.7932270311542</v>
       </c>
       <c r="AD15" t="n">
-        <v>339187.3572160067</v>
+        <v>374733.7073442106</v>
       </c>
       <c r="AE15" t="n">
-        <v>464091.1060330434</v>
+        <v>512727.190472742</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.194745542223466e-06</v>
+        <v>6.040508801730868e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.876041666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>419798.9022292072</v>
+        <v>463793.2270311542</v>
       </c>
     </row>
     <row r="16">
@@ -17529,28 +17529,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>335.3449878032748</v>
+        <v>370.8913379314786</v>
       </c>
       <c r="AB16" t="n">
-        <v>458.8338066891686</v>
+        <v>507.4698911288672</v>
       </c>
       <c r="AC16" t="n">
-        <v>415.0433521560458</v>
+        <v>459.0376769579929</v>
       </c>
       <c r="AD16" t="n">
-        <v>335344.9878032748</v>
+        <v>370891.3379314786</v>
       </c>
       <c r="AE16" t="n">
-        <v>458833.8066891686</v>
+        <v>507469.8911288672</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.205513843288028e-06</v>
+        <v>6.060869114156532e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.860416666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>415043.3521560458</v>
+        <v>459037.6769579929</v>
       </c>
     </row>
     <row r="17">
@@ -17635,28 +17635,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>332.9444918538581</v>
+        <v>368.490841982062</v>
       </c>
       <c r="AB17" t="n">
-        <v>455.5493422287698</v>
+        <v>504.1854266684684</v>
       </c>
       <c r="AC17" t="n">
-        <v>412.0723523739726</v>
+        <v>456.0666771759197</v>
       </c>
       <c r="AD17" t="n">
-        <v>332944.4918538581</v>
+        <v>368490.841982062</v>
       </c>
       <c r="AE17" t="n">
-        <v>455549.3422287698</v>
+        <v>504185.4266684684</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.209252836713222e-06</v>
+        <v>6.06793866708211e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.854166666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>412072.3523739727</v>
+        <v>456066.6771759197</v>
       </c>
     </row>
     <row r="18">
@@ -17741,28 +17741,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>329.2181433153156</v>
+        <v>364.7644934435195</v>
       </c>
       <c r="AB18" t="n">
-        <v>450.4507877634408</v>
+        <v>499.0868722031393</v>
       </c>
       <c r="AC18" t="n">
-        <v>407.4603967909485</v>
+        <v>451.4547215928955</v>
       </c>
       <c r="AD18" t="n">
-        <v>329218.1433153155</v>
+        <v>364764.4934435195</v>
       </c>
       <c r="AE18" t="n">
-        <v>450450.7877634407</v>
+        <v>499086.8722031393</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.220619376725815e-06</v>
+        <v>6.089430107975867e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.837499999999999</v>
       </c>
       <c r="AH18" t="n">
-        <v>407460.3967909485</v>
+        <v>451454.7215928955</v>
       </c>
     </row>
     <row r="19">
@@ -17847,28 +17847,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>325.4179884261853</v>
+        <v>360.9643385543893</v>
       </c>
       <c r="AB19" t="n">
-        <v>445.2512481931312</v>
+        <v>493.8873326328298</v>
       </c>
       <c r="AC19" t="n">
-        <v>402.7570939796297</v>
+        <v>446.7514187815767</v>
       </c>
       <c r="AD19" t="n">
-        <v>325417.9884261853</v>
+        <v>360964.3385543893</v>
       </c>
       <c r="AE19" t="n">
-        <v>445251.2481931312</v>
+        <v>493887.3326328298</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.228246923313212e-06</v>
+        <v>6.103851995944047e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.826041666666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>402757.0939796297</v>
+        <v>446751.4187815767</v>
       </c>
     </row>
     <row r="20">
@@ -17953,28 +17953,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>322.0586837437332</v>
+        <v>357.6050338719371</v>
       </c>
       <c r="AB20" t="n">
-        <v>440.6548993245373</v>
+        <v>489.2909837642359</v>
       </c>
       <c r="AC20" t="n">
-        <v>398.5994141960381</v>
+        <v>442.5937389979852</v>
       </c>
       <c r="AD20" t="n">
-        <v>322058.6837437332</v>
+        <v>357605.0338719371</v>
       </c>
       <c r="AE20" t="n">
-        <v>440654.8993245373</v>
+        <v>489290.9837642359</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.231836357001399e-06</v>
+        <v>6.110638766752601e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.820833333333334</v>
       </c>
       <c r="AH20" t="n">
-        <v>398599.4141960382</v>
+        <v>442593.7389979851</v>
       </c>
     </row>
     <row r="21">
@@ -18059,28 +18059,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>319.3451009717429</v>
+        <v>354.8914510999468</v>
       </c>
       <c r="AB21" t="n">
-        <v>436.9420556610773</v>
+        <v>485.5781401007758</v>
       </c>
       <c r="AC21" t="n">
-        <v>395.24091912081</v>
+        <v>439.235243922757</v>
       </c>
       <c r="AD21" t="n">
-        <v>319345.1009717429</v>
+        <v>354891.4510999468</v>
       </c>
       <c r="AE21" t="n">
-        <v>436942.0556610773</v>
+        <v>485578.1401007759</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.237370067270688e-06</v>
+        <v>6.121101705082457e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.8125</v>
       </c>
       <c r="AH21" t="n">
-        <v>395240.91912081</v>
+        <v>439235.243922757</v>
       </c>
     </row>
     <row r="22">
@@ -18165,28 +18165,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>317.4452786676878</v>
+        <v>352.9916287958917</v>
       </c>
       <c r="AB22" t="n">
-        <v>434.3426349704243</v>
+        <v>482.9787194101229</v>
       </c>
       <c r="AC22" t="n">
-        <v>392.8895834925631</v>
+        <v>436.8839082945101</v>
       </c>
       <c r="AD22" t="n">
-        <v>317445.2786676878</v>
+        <v>352991.6287958917</v>
       </c>
       <c r="AE22" t="n">
-        <v>434342.6349704243</v>
+        <v>482978.719410123</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.243502016488007e-06</v>
+        <v>6.132695771880404e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.803125000000001</v>
       </c>
       <c r="AH22" t="n">
-        <v>392889.5834925631</v>
+        <v>436883.9082945102</v>
       </c>
     </row>
     <row r="23">
@@ -18271,28 +18271,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>316.775579057074</v>
+        <v>352.321929185278</v>
       </c>
       <c r="AB23" t="n">
-        <v>433.426322418121</v>
+        <v>482.0624068578196</v>
       </c>
       <c r="AC23" t="n">
-        <v>392.0607225241989</v>
+        <v>436.0550473261459</v>
       </c>
       <c r="AD23" t="n">
-        <v>316775.579057074</v>
+        <v>352321.929185278</v>
       </c>
       <c r="AE23" t="n">
-        <v>433426.322418121</v>
+        <v>482062.4068578196</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.24395069569903e-06</v>
+        <v>6.133544118231475e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.802083333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>392060.7225241989</v>
+        <v>436055.0473261459</v>
       </c>
     </row>
     <row r="24">
@@ -18377,28 +18377,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>316.8970071609883</v>
+        <v>352.4433572891921</v>
       </c>
       <c r="AB24" t="n">
-        <v>433.5924657069262</v>
+        <v>482.2285501466249</v>
       </c>
       <c r="AC24" t="n">
-        <v>392.2110093307041</v>
+        <v>436.2053341326512</v>
       </c>
       <c r="AD24" t="n">
-        <v>316897.0071609883</v>
+        <v>352443.3572891922</v>
       </c>
       <c r="AE24" t="n">
-        <v>433592.4657069262</v>
+        <v>482228.5501466249</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.242455098328953e-06</v>
+        <v>6.130716297061244e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4.805208333333334</v>
       </c>
       <c r="AH24" t="n">
-        <v>392211.0093307042</v>
+        <v>436205.3341326512</v>
       </c>
     </row>
   </sheetData>
@@ -18674,28 +18674,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.9769572824534</v>
+        <v>291.3757242368497</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.4484305615142</v>
+        <v>398.6731204905808</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.2386154342544</v>
+        <v>360.6243174121979</v>
       </c>
       <c r="AD2" t="n">
-        <v>261976.9572824535</v>
+        <v>291375.7242368498</v>
       </c>
       <c r="AE2" t="n">
-        <v>358448.4305615142</v>
+        <v>398673.1204905808</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.181486215565194e-06</v>
+        <v>7.293769507611553e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.860416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>324238.6154342544</v>
+        <v>360624.3174121979</v>
       </c>
     </row>
     <row r="3">
@@ -18780,28 +18780,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>206.9082165554081</v>
+        <v>226.5074840335565</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.1009500372608</v>
+        <v>309.9175324595066</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.0821927004667</v>
+        <v>280.3394381336516</v>
       </c>
       <c r="AD3" t="n">
-        <v>206908.2165554081</v>
+        <v>226507.4840335565</v>
       </c>
       <c r="AE3" t="n">
-        <v>283100.9500372608</v>
+        <v>309917.5324595065</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.653652777402661e-06</v>
+        <v>8.376242866884649e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.103125</v>
       </c>
       <c r="AH3" t="n">
-        <v>256082.1927004667</v>
+        <v>280339.4381336516</v>
       </c>
     </row>
     <row r="4">
@@ -18886,28 +18886,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>188.2998292845042</v>
+        <v>217.6132553843285</v>
       </c>
       <c r="AB4" t="n">
-        <v>257.6401336291157</v>
+        <v>297.748056435964</v>
       </c>
       <c r="AC4" t="n">
-        <v>233.0513208758266</v>
+        <v>269.3313998218253</v>
       </c>
       <c r="AD4" t="n">
-        <v>188299.8292845042</v>
+        <v>217613.2553843285</v>
       </c>
       <c r="AE4" t="n">
-        <v>257640.1336291157</v>
+        <v>297748.056435964</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.732227879998054e-06</v>
+        <v>8.556381534330019e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.995833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>233051.3208758266</v>
+        <v>269331.3998218253</v>
       </c>
     </row>
   </sheetData>
@@ -19183,28 +19183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>903.9270260038168</v>
+        <v>949.5082781789959</v>
       </c>
       <c r="AB2" t="n">
-        <v>1236.792835424331</v>
+        <v>1299.159115553334</v>
       </c>
       <c r="AC2" t="n">
-        <v>1118.755063061079</v>
+        <v>1175.169192946194</v>
       </c>
       <c r="AD2" t="n">
-        <v>903927.0260038167</v>
+        <v>949508.2781789958</v>
       </c>
       <c r="AE2" t="n">
-        <v>1236792.835424331</v>
+        <v>1299159.115553334</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.786109330214321e-06</v>
+        <v>3.500749603306685e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.06875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1118755.063061079</v>
+        <v>1175169.192946194</v>
       </c>
     </row>
     <row r="3">
@@ -19289,28 +19289,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>479.2220005909626</v>
+        <v>513.322621244913</v>
       </c>
       <c r="AB3" t="n">
-        <v>655.6926829911098</v>
+        <v>702.3506565830518</v>
       </c>
       <c r="AC3" t="n">
-        <v>593.1142935968979</v>
+        <v>635.3192956741022</v>
       </c>
       <c r="AD3" t="n">
-        <v>479222.0005909626</v>
+        <v>513322.621244913</v>
       </c>
       <c r="AE3" t="n">
-        <v>655692.6829911098</v>
+        <v>702350.6565830518</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.610359835956997e-06</v>
+        <v>5.116269203474592e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.205208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>593114.293596898</v>
+        <v>635319.2956741023</v>
       </c>
     </row>
     <row r="4">
@@ -19395,28 +19395,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>399.2597716033835</v>
+        <v>433.4456436033545</v>
       </c>
       <c r="AB4" t="n">
-        <v>546.2848336057327</v>
+        <v>593.0594518503241</v>
       </c>
       <c r="AC4" t="n">
-        <v>494.1481758019802</v>
+        <v>536.4586901298967</v>
       </c>
       <c r="AD4" t="n">
-        <v>399259.7716033835</v>
+        <v>433445.6436033545</v>
       </c>
       <c r="AE4" t="n">
-        <v>546284.8336057328</v>
+        <v>593059.4518503241</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.897082705715438e-06</v>
+        <v>5.678242065709947e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.590625</v>
       </c>
       <c r="AH4" t="n">
-        <v>494148.1758019803</v>
+        <v>536458.6901298967</v>
       </c>
     </row>
     <row r="5">
@@ -19501,28 +19501,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>369.8743349521684</v>
+        <v>403.8896147515471</v>
       </c>
       <c r="AB5" t="n">
-        <v>506.07838278557</v>
+        <v>552.6195892553144</v>
       </c>
       <c r="AC5" t="n">
-        <v>457.7789722179858</v>
+        <v>499.8783512632512</v>
       </c>
       <c r="AD5" t="n">
-        <v>369874.3349521684</v>
+        <v>403889.6147515471</v>
       </c>
       <c r="AE5" t="n">
-        <v>506078.38278557</v>
+        <v>552619.5892553144</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.042931974605577e-06</v>
+        <v>5.964104617107324e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.322916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>457778.9722179858</v>
+        <v>499878.3512632512</v>
       </c>
     </row>
     <row r="6">
@@ -19607,28 +19607,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>352.0384915528409</v>
+        <v>374.8291623947059</v>
       </c>
       <c r="AB6" t="n">
-        <v>481.6745949847334</v>
+        <v>512.8577962840093</v>
       </c>
       <c r="AC6" t="n">
-        <v>435.7042476739297</v>
+        <v>463.9113680071005</v>
       </c>
       <c r="AD6" t="n">
-        <v>352038.4915528409</v>
+        <v>374829.1623947059</v>
       </c>
       <c r="AE6" t="n">
-        <v>481674.5949847334</v>
+        <v>512857.7962840093</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.134670853758224e-06</v>
+        <v>6.143911552421239e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>435704.2476739297</v>
+        <v>463911.3680071005</v>
       </c>
     </row>
     <row r="7">
@@ -19713,28 +19713,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>340.3107082955736</v>
+        <v>363.1013791374386</v>
       </c>
       <c r="AB7" t="n">
-        <v>465.6281245388587</v>
+        <v>496.8113258381347</v>
       </c>
       <c r="AC7" t="n">
-        <v>421.1892298460465</v>
+        <v>449.3963501792174</v>
       </c>
       <c r="AD7" t="n">
-        <v>340310.7082955736</v>
+        <v>363101.3791374386</v>
       </c>
       <c r="AE7" t="n">
-        <v>465628.1245388588</v>
+        <v>496811.3258381347</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.195000828523015e-06</v>
+        <v>6.26215746920395e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.069791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>421189.2298460465</v>
+        <v>449396.3501792174</v>
       </c>
     </row>
     <row r="8">
@@ -19819,28 +19819,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>331.5287097543992</v>
+        <v>354.3193805962642</v>
       </c>
       <c r="AB8" t="n">
-        <v>453.6122067003921</v>
+        <v>484.7954079996679</v>
       </c>
       <c r="AC8" t="n">
-        <v>410.3200943416364</v>
+        <v>438.5272146748075</v>
       </c>
       <c r="AD8" t="n">
-        <v>331528.7097543992</v>
+        <v>354319.3805962643</v>
       </c>
       <c r="AE8" t="n">
-        <v>453612.2067003921</v>
+        <v>484795.4079996679</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.238848902965466e-06</v>
+        <v>6.348099089133652e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.001041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>410320.0943416365</v>
+        <v>438527.2146748074</v>
       </c>
     </row>
     <row r="9">
@@ -19925,28 +19925,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>311.6538737690719</v>
+        <v>345.7544049144713</v>
       </c>
       <c r="AB9" t="n">
-        <v>426.4185792893862</v>
+        <v>473.0764304117798</v>
       </c>
       <c r="AC9" t="n">
-        <v>385.7217885642413</v>
+        <v>427.926679860219</v>
       </c>
       <c r="AD9" t="n">
-        <v>311653.8737690719</v>
+        <v>345754.4049144713</v>
       </c>
       <c r="AE9" t="n">
-        <v>426418.5792893862</v>
+        <v>473076.4304117798</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.27336759986697e-06</v>
+        <v>6.415755258014481e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>385721.7885642413</v>
+        <v>427926.679860219</v>
       </c>
     </row>
     <row r="10">
@@ -20031,28 +20031,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>305.6193758587268</v>
+        <v>339.7199070041261</v>
       </c>
       <c r="AB10" t="n">
-        <v>418.1619130251933</v>
+        <v>464.819764147587</v>
       </c>
       <c r="AC10" t="n">
-        <v>378.253126939999</v>
+        <v>420.4580182359767</v>
       </c>
       <c r="AD10" t="n">
-        <v>305619.3758587268</v>
+        <v>339719.9070041261</v>
       </c>
       <c r="AE10" t="n">
-        <v>418161.9130251933</v>
+        <v>464819.7641475869</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.29933436735594e-06</v>
+        <v>6.466649763433843e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.909375</v>
       </c>
       <c r="AH10" t="n">
-        <v>378253.1269399991</v>
+        <v>420458.0182359767</v>
       </c>
     </row>
     <row r="11">
@@ -20137,28 +20137,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>299.9167237518613</v>
+        <v>334.0172548972607</v>
       </c>
       <c r="AB11" t="n">
-        <v>410.3592928293247</v>
+        <v>457.0171439517184</v>
       </c>
       <c r="AC11" t="n">
-        <v>371.1951778645781</v>
+        <v>413.4000691605557</v>
       </c>
       <c r="AD11" t="n">
-        <v>299916.7237518613</v>
+        <v>334017.2548972607</v>
       </c>
       <c r="AE11" t="n">
-        <v>410359.2928293247</v>
+        <v>457017.1439517184</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.319548018694658e-06</v>
+        <v>6.506268240706401e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.879166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>371195.177864578</v>
+        <v>413400.0691605557</v>
       </c>
     </row>
     <row r="12">
@@ -20243,28 +20243,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>293.5651727836553</v>
+        <v>327.6657039290546</v>
       </c>
       <c r="AB12" t="n">
-        <v>401.6688205839729</v>
+        <v>448.3266717063666</v>
       </c>
       <c r="AC12" t="n">
-        <v>363.3341120931681</v>
+        <v>405.5390033891459</v>
       </c>
       <c r="AD12" t="n">
-        <v>293565.1727836553</v>
+        <v>327665.7039290547</v>
       </c>
       <c r="AE12" t="n">
-        <v>401668.820583973</v>
+        <v>448326.6717063666</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.336651877519728e-06</v>
+        <v>6.539791567629335e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.854166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>363334.1120931681</v>
+        <v>405539.0033891459</v>
       </c>
     </row>
     <row r="13">
@@ -20349,28 +20349,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>288.6138624605198</v>
+        <v>322.7143936059192</v>
       </c>
       <c r="AB13" t="n">
-        <v>394.8942193634641</v>
+        <v>441.5520704858577</v>
       </c>
       <c r="AC13" t="n">
-        <v>357.2060693049322</v>
+        <v>399.4109606009098</v>
       </c>
       <c r="AD13" t="n">
-        <v>288613.8624605198</v>
+        <v>322714.3936059192</v>
       </c>
       <c r="AE13" t="n">
-        <v>394894.219363464</v>
+        <v>441552.0704858577</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.351112412708195e-06</v>
+        <v>6.568134016755086e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>357206.0693049321</v>
+        <v>399410.9606009098</v>
       </c>
     </row>
     <row r="14">
@@ -20455,28 +20455,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>284.4508522692837</v>
+        <v>318.5513834146831</v>
       </c>
       <c r="AB14" t="n">
-        <v>389.1982051607671</v>
+        <v>435.8560562831607</v>
       </c>
       <c r="AC14" t="n">
-        <v>352.0536747033344</v>
+        <v>394.2585659993122</v>
       </c>
       <c r="AD14" t="n">
-        <v>284450.8522692837</v>
+        <v>318551.383414683</v>
       </c>
       <c r="AE14" t="n">
-        <v>389198.2051607671</v>
+        <v>435856.0562831608</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.362307665757332e-06</v>
+        <v>6.590076558013733e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.816666666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>352053.6747033344</v>
+        <v>394258.5659993122</v>
       </c>
     </row>
     <row r="15">
@@ -20561,28 +20561,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>280.7803411524475</v>
+        <v>314.8808722978468</v>
       </c>
       <c r="AB15" t="n">
-        <v>384.1760499191898</v>
+        <v>430.8339010415834</v>
       </c>
       <c r="AC15" t="n">
-        <v>347.5108269093741</v>
+        <v>389.7157182053518</v>
       </c>
       <c r="AD15" t="n">
-        <v>280780.3411524475</v>
+        <v>314880.8722978468</v>
       </c>
       <c r="AE15" t="n">
-        <v>384176.0499191898</v>
+        <v>430833.9010415834</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.370704105544185e-06</v>
+        <v>6.60653346395772e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.805208333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>347510.8269093741</v>
+        <v>389715.7182053518</v>
       </c>
     </row>
     <row r="16">
@@ -20667,28 +20667,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>282.1223923434425</v>
+        <v>316.2229234888418</v>
       </c>
       <c r="AB16" t="n">
-        <v>386.0123035658293</v>
+        <v>432.6701546882229</v>
       </c>
       <c r="AC16" t="n">
-        <v>349.1718310851764</v>
+        <v>391.3767223811541</v>
       </c>
       <c r="AD16" t="n">
-        <v>282122.3923434425</v>
+        <v>316222.9234888419</v>
       </c>
       <c r="AE16" t="n">
-        <v>386012.3035658293</v>
+        <v>432670.1546882229</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.37039312629282e-06</v>
+        <v>6.605923948922757e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.805208333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>349171.8310851764</v>
+        <v>391376.7223811541</v>
       </c>
     </row>
     <row r="17">
@@ -20773,28 +20773,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>283.5323406416544</v>
+        <v>317.6328717870538</v>
       </c>
       <c r="AB17" t="n">
-        <v>387.9414570299715</v>
+        <v>434.5993081523651</v>
       </c>
       <c r="AC17" t="n">
-        <v>350.9168688502849</v>
+        <v>393.1217601462626</v>
       </c>
       <c r="AD17" t="n">
-        <v>283532.3406416544</v>
+        <v>317632.8717870538</v>
       </c>
       <c r="AE17" t="n">
-        <v>387941.4570299715</v>
+        <v>434599.3081523651</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.37039312629282e-06</v>
+        <v>6.605923948922757e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.805208333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>350916.8688502849</v>
+        <v>393121.7601462626</v>
       </c>
     </row>
   </sheetData>
@@ -21070,28 +21070,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1132.043871181026</v>
+        <v>1190.188006165028</v>
       </c>
       <c r="AB2" t="n">
-        <v>1548.912366800729</v>
+        <v>1628.467737424038</v>
       </c>
       <c r="AC2" t="n">
-        <v>1401.086344425427</v>
+        <v>1473.049062133111</v>
       </c>
       <c r="AD2" t="n">
-        <v>1132043.871181026</v>
+        <v>1190188.006165028</v>
       </c>
       <c r="AE2" t="n">
-        <v>1548912.366800729</v>
+        <v>1628467.737424038</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.581381115762829e-06</v>
+        <v>3.040526343888548e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.03541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1401086.344425427</v>
+        <v>1473049.062133112</v>
       </c>
     </row>
     <row r="3">
@@ -21176,28 +21176,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>541.4184077003706</v>
+        <v>576.2707881523637</v>
       </c>
       <c r="AB3" t="n">
-        <v>740.7925511100279</v>
+        <v>788.4791156229538</v>
       </c>
       <c r="AC3" t="n">
-        <v>670.0923497409617</v>
+        <v>713.2277754652874</v>
       </c>
       <c r="AD3" t="n">
-        <v>541418.4077003706</v>
+        <v>576270.7881523637</v>
       </c>
       <c r="AE3" t="n">
-        <v>740792.5511100279</v>
+        <v>788479.1156229539</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.449464892026471e-06</v>
+        <v>4.709593695283243e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.479166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>670092.3497409617</v>
+        <v>713227.7754652874</v>
       </c>
     </row>
     <row r="4">
@@ -21282,28 +21282,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>442.2464621451264</v>
+        <v>477.1840939431401</v>
       </c>
       <c r="AB4" t="n">
-        <v>605.1011200438882</v>
+        <v>652.9043292094632</v>
       </c>
       <c r="AC4" t="n">
-        <v>547.3511184116545</v>
+        <v>590.5920563866925</v>
       </c>
       <c r="AD4" t="n">
-        <v>442246.4621451264</v>
+        <v>477184.0939431401</v>
       </c>
       <c r="AE4" t="n">
-        <v>605101.1200438881</v>
+        <v>652904.3292094632</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.760865951816377e-06</v>
+        <v>5.308325472442029e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.747916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>547351.1184116545</v>
+        <v>590592.0563866926</v>
       </c>
     </row>
     <row r="5">
@@ -21388,28 +21388,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>405.9644508094465</v>
+        <v>440.731490406868</v>
       </c>
       <c r="AB5" t="n">
-        <v>555.4584714850388</v>
+        <v>603.0282688757669</v>
       </c>
       <c r="AC5" t="n">
-        <v>502.4462945573669</v>
+        <v>545.4760972497539</v>
       </c>
       <c r="AD5" t="n">
-        <v>405964.4508094465</v>
+        <v>440731.490406868</v>
       </c>
       <c r="AE5" t="n">
-        <v>555458.4714850388</v>
+        <v>603028.2688757669</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.921289296218907e-06</v>
+        <v>5.616771931027254e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.432291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>502446.2945573669</v>
+        <v>545476.0972497539</v>
       </c>
     </row>
     <row r="6">
@@ -21494,28 +21494,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>385.7039520348741</v>
+        <v>408.9957960754342</v>
       </c>
       <c r="AB6" t="n">
-        <v>527.7371632315463</v>
+        <v>559.6060918114781</v>
       </c>
       <c r="AC6" t="n">
-        <v>477.3706690564874</v>
+        <v>506.1980718210726</v>
       </c>
       <c r="AD6" t="n">
-        <v>385703.9520348741</v>
+        <v>408995.7960754342</v>
       </c>
       <c r="AE6" t="n">
-        <v>527737.1632315463</v>
+        <v>559606.0918114781</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.018792563472107e-06</v>
+        <v>5.804241763405739e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.257291666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>477370.6690564874</v>
+        <v>506198.0718210726</v>
       </c>
     </row>
     <row r="7">
@@ -21600,28 +21600,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>372.1665572801267</v>
+        <v>395.4584013206868</v>
       </c>
       <c r="AB7" t="n">
-        <v>509.2147025003947</v>
+        <v>541.0836310803264</v>
       </c>
       <c r="AC7" t="n">
-        <v>460.6159659810799</v>
+        <v>489.4433687456651</v>
       </c>
       <c r="AD7" t="n">
-        <v>372166.5572801267</v>
+        <v>395458.4013206869</v>
       </c>
       <c r="AE7" t="n">
-        <v>509214.7025003947</v>
+        <v>541083.6310803264</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.084607268868016e-06</v>
+        <v>5.930783900261216e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.144791666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>460615.9659810799</v>
+        <v>489443.3687456651</v>
       </c>
     </row>
     <row r="8">
@@ -21706,28 +21706,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>362.0450078515755</v>
+        <v>385.3368518921357</v>
       </c>
       <c r="AB8" t="n">
-        <v>495.3659520410047</v>
+        <v>527.2348806209365</v>
       </c>
       <c r="AC8" t="n">
-        <v>448.0889208286906</v>
+        <v>476.9163235932759</v>
       </c>
       <c r="AD8" t="n">
-        <v>362045.0078515754</v>
+        <v>385336.8518921356</v>
       </c>
       <c r="AE8" t="n">
-        <v>495365.9520410047</v>
+        <v>527234.8806209364</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.133206553639533e-06</v>
+        <v>6.024225894837367e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.064583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>448088.9208286906</v>
+        <v>476916.3235932759</v>
       </c>
     </row>
     <row r="9">
@@ -21812,28 +21812,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>354.1720544241093</v>
+        <v>377.4638984646695</v>
       </c>
       <c r="AB9" t="n">
-        <v>484.5938298313537</v>
+        <v>516.4627584112853</v>
       </c>
       <c r="AC9" t="n">
-        <v>438.3448748439603</v>
+        <v>467.1722776085455</v>
       </c>
       <c r="AD9" t="n">
-        <v>354172.0544241093</v>
+        <v>377463.8984646695</v>
       </c>
       <c r="AE9" t="n">
-        <v>484593.8298313537</v>
+        <v>516462.7584112854</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.167485046033235e-06</v>
+        <v>6.090133257782928e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.010416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>438344.8748439603</v>
+        <v>467172.2776085456</v>
       </c>
     </row>
     <row r="10">
@@ -21918,28 +21918,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>334.8549632045435</v>
+        <v>369.7072541479856</v>
       </c>
       <c r="AB10" t="n">
-        <v>458.1633334148249</v>
+        <v>505.8497754582023</v>
       </c>
       <c r="AC10" t="n">
-        <v>414.4368679099904</v>
+        <v>457.5721828530896</v>
       </c>
       <c r="AD10" t="n">
-        <v>334854.9632045435</v>
+        <v>369707.2541479856</v>
       </c>
       <c r="AE10" t="n">
-        <v>458163.3334148249</v>
+        <v>505849.7754582023</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.198716561325276e-06</v>
+        <v>6.150182188466661e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.961458333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>414436.8679099904</v>
+        <v>457572.1828530896</v>
       </c>
     </row>
     <row r="11">
@@ -22024,28 +22024,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>330.0412665778694</v>
+        <v>364.8935575213114</v>
       </c>
       <c r="AB11" t="n">
-        <v>451.5770213249023</v>
+        <v>499.2634633682796</v>
       </c>
       <c r="AC11" t="n">
-        <v>408.4791442019829</v>
+        <v>451.6144591450821</v>
       </c>
       <c r="AD11" t="n">
-        <v>330041.2665778694</v>
+        <v>364893.5575213114</v>
       </c>
       <c r="AE11" t="n">
-        <v>451577.0213249023</v>
+        <v>499263.4633682796</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.218369563630999e-06</v>
+        <v>6.187969076555449e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.93125</v>
       </c>
       <c r="AH11" t="n">
-        <v>408479.1442019829</v>
+        <v>451614.4591450821</v>
       </c>
     </row>
     <row r="12">
@@ -22130,28 +22130,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>324.3174102120354</v>
+        <v>359.1697011554775</v>
       </c>
       <c r="AB12" t="n">
-        <v>443.7453885264472</v>
+        <v>491.4318305698246</v>
       </c>
       <c r="AC12" t="n">
-        <v>401.3949514460467</v>
+        <v>444.5302663891459</v>
       </c>
       <c r="AD12" t="n">
-        <v>324317.4102120354</v>
+        <v>359169.7011554775</v>
       </c>
       <c r="AE12" t="n">
-        <v>443745.3885264472</v>
+        <v>491431.8305698246</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.238936659067221e-06</v>
+        <v>6.227513494322786e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="AH12" t="n">
-        <v>401394.9514460467</v>
+        <v>444530.2663891459</v>
       </c>
     </row>
     <row r="13">
@@ -22236,28 +22236,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>319.5984898650196</v>
+        <v>354.4507808084617</v>
       </c>
       <c r="AB13" t="n">
-        <v>437.2887535235874</v>
+        <v>484.9751955669647</v>
       </c>
       <c r="AC13" t="n">
-        <v>395.5545286259156</v>
+        <v>438.6898435690148</v>
       </c>
       <c r="AD13" t="n">
-        <v>319598.4898650196</v>
+        <v>354450.7808084617</v>
       </c>
       <c r="AE13" t="n">
-        <v>437288.7535235874</v>
+        <v>484975.1955669647</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.255695033126364e-06</v>
+        <v>6.259734871762838e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.873958333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>395554.5286259156</v>
+        <v>438689.8435690149</v>
       </c>
     </row>
     <row r="14">
@@ -22342,28 +22342,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>315.5021545689023</v>
+        <v>350.3544455123443</v>
       </c>
       <c r="AB14" t="n">
-        <v>431.6839668538809</v>
+        <v>479.3704088972582</v>
       </c>
       <c r="AC14" t="n">
-        <v>390.4846549295984</v>
+        <v>433.6199698726976</v>
       </c>
       <c r="AD14" t="n">
-        <v>315502.1545689023</v>
+        <v>350354.4455123444</v>
       </c>
       <c r="AE14" t="n">
-        <v>431683.9668538808</v>
+        <v>479370.4088972582</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.265293010996601e-06</v>
+        <v>6.278188933387595e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.860416666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>390484.6549295984</v>
+        <v>433619.9698726976</v>
       </c>
     </row>
     <row r="15">
@@ -22448,28 +22448,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>311.2818818939679</v>
+        <v>346.13417283741</v>
       </c>
       <c r="AB15" t="n">
-        <v>425.9096035947456</v>
+        <v>473.5960456381228</v>
       </c>
       <c r="AC15" t="n">
-        <v>385.2613887955452</v>
+        <v>428.3967037386445</v>
       </c>
       <c r="AD15" t="n">
-        <v>311281.8818939679</v>
+        <v>346134.17283741</v>
       </c>
       <c r="AE15" t="n">
-        <v>425909.6035947456</v>
+        <v>473596.0456381228</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.276414477417669e-06</v>
+        <v>6.299572211143265e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.84375</v>
       </c>
       <c r="AH15" t="n">
-        <v>385261.3887955452</v>
+        <v>428396.7037386445</v>
       </c>
     </row>
     <row r="16">
@@ -22554,28 +22554,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>306.8779074748136</v>
+        <v>341.7301984182557</v>
       </c>
       <c r="AB16" t="n">
-        <v>419.8838915048195</v>
+        <v>467.5703335481967</v>
       </c>
       <c r="AC16" t="n">
-        <v>379.8107622103417</v>
+        <v>422.9460771534409</v>
       </c>
       <c r="AD16" t="n">
-        <v>306877.9074748136</v>
+        <v>341730.1984182557</v>
       </c>
       <c r="AE16" t="n">
-        <v>419883.8915048195</v>
+        <v>467570.3335481968</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.286774199563322e-06</v>
+        <v>6.31949088083348e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.828125</v>
       </c>
       <c r="AH16" t="n">
-        <v>379810.7622103418</v>
+        <v>422946.0771534409</v>
       </c>
     </row>
     <row r="17">
@@ -22660,28 +22660,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>302.1876554606256</v>
+        <v>337.0399464040677</v>
       </c>
       <c r="AB17" t="n">
-        <v>413.4664817796923</v>
+        <v>461.1529238230697</v>
       </c>
       <c r="AC17" t="n">
-        <v>374.0058210624895</v>
+        <v>417.1411360055887</v>
       </c>
       <c r="AD17" t="n">
-        <v>302187.6554606256</v>
+        <v>337039.9464040677</v>
       </c>
       <c r="AE17" t="n">
-        <v>413466.4817796923</v>
+        <v>461152.9238230697</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.298809759114888e-06</v>
+        <v>6.342631688267699e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.810416666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>374005.8210624895</v>
+        <v>417141.1360055887</v>
       </c>
     </row>
     <row r="18">
@@ -22766,28 +22766,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>299.8653346356756</v>
+        <v>334.7176255791177</v>
       </c>
       <c r="AB18" t="n">
-        <v>410.2889799734317</v>
+        <v>457.9754220168091</v>
       </c>
       <c r="AC18" t="n">
-        <v>371.1315755689667</v>
+        <v>414.2668905120659</v>
       </c>
       <c r="AD18" t="n">
-        <v>299865.3346356756</v>
+        <v>334717.6255791177</v>
       </c>
       <c r="AE18" t="n">
-        <v>410288.9799734317</v>
+        <v>457975.4220168091</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.30475136446313e-06</v>
+        <v>6.354055631178264e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.802083333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>371131.5755689667</v>
+        <v>414266.8905120658</v>
       </c>
     </row>
     <row r="19">
@@ -22872,28 +22872,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>299.5879206735346</v>
+        <v>334.4402116169767</v>
       </c>
       <c r="AB19" t="n">
-        <v>409.9094099517902</v>
+        <v>457.5958519951675</v>
       </c>
       <c r="AC19" t="n">
-        <v>370.7882311774608</v>
+        <v>413.9235461205599</v>
       </c>
       <c r="AD19" t="n">
-        <v>299587.9206735346</v>
+        <v>334440.2116169767</v>
       </c>
       <c r="AE19" t="n">
-        <v>409909.4099517902</v>
+        <v>457595.8519951676</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.301552038506385e-06</v>
+        <v>6.347904277303345e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.807291666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>370788.2311774608</v>
+        <v>413923.5461205599</v>
       </c>
     </row>
     <row r="20">
@@ -22978,28 +22978,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>300.5069297394034</v>
+        <v>335.3592206828455</v>
       </c>
       <c r="AB20" t="n">
-        <v>411.1668386995304</v>
+        <v>458.8532807429078</v>
       </c>
       <c r="AC20" t="n">
-        <v>371.925652690329</v>
+        <v>415.0609676334282</v>
       </c>
       <c r="AD20" t="n">
-        <v>300506.9297394034</v>
+        <v>335359.2206828456</v>
       </c>
       <c r="AE20" t="n">
-        <v>411166.8386995305</v>
+        <v>458853.2807429078</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.302161433926717e-06</v>
+        <v>6.349075963755709e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.806249999999999</v>
       </c>
       <c r="AH20" t="n">
-        <v>371925.652690329</v>
+        <v>415060.9676334282</v>
       </c>
     </row>
   </sheetData>
@@ -23275,28 +23275,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1811.57480465915</v>
+        <v>1896.139451880165</v>
       </c>
       <c r="AB2" t="n">
-        <v>2478.676568774486</v>
+        <v>2594.381649831213</v>
       </c>
       <c r="AC2" t="n">
-        <v>2242.115155895062</v>
+        <v>2346.777506408836</v>
       </c>
       <c r="AD2" t="n">
-        <v>1811574.80465915</v>
+        <v>1896139.451880165</v>
       </c>
       <c r="AE2" t="n">
-        <v>2478676.568774486</v>
+        <v>2594381.649831213</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.217432189380576e-06</v>
+        <v>2.267983830937699e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.58229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2242115.155895062</v>
+        <v>2346777.506408836</v>
       </c>
     </row>
     <row r="3">
@@ -23381,28 +23381,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>689.134807557257</v>
+        <v>725.4134633839167</v>
       </c>
       <c r="AB3" t="n">
-        <v>942.9046461818498</v>
+        <v>992.5427035852227</v>
       </c>
       <c r="AC3" t="n">
-        <v>852.9151501252358</v>
+        <v>897.8158209974821</v>
       </c>
       <c r="AD3" t="n">
-        <v>689134.807557257</v>
+        <v>725413.4633839166</v>
       </c>
       <c r="AE3" t="n">
-        <v>942904.6461818498</v>
+        <v>992542.7035852227</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.171055543424909e-06</v>
+        <v>4.044511810600819e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.055208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>852915.1501252358</v>
+        <v>897815.820997482</v>
       </c>
     </row>
     <row r="4">
@@ -23487,28 +23487,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>544.7288491697003</v>
+        <v>580.9221641417882</v>
       </c>
       <c r="AB4" t="n">
-        <v>745.322043174735</v>
+        <v>794.8433334559103</v>
       </c>
       <c r="AC4" t="n">
-        <v>674.189553440195</v>
+        <v>718.9846012805025</v>
       </c>
       <c r="AD4" t="n">
-        <v>544728.8491697003</v>
+        <v>580922.1641417883</v>
       </c>
       <c r="AE4" t="n">
-        <v>745322.0431747349</v>
+        <v>794843.3334559103</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.517947986322454e-06</v>
+        <v>4.690746121167558e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>674189.553440195</v>
+        <v>718984.6012805025</v>
       </c>
     </row>
     <row r="5">
@@ -23593,28 +23593,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>481.6991341736124</v>
+        <v>517.9777004917212</v>
       </c>
       <c r="AB5" t="n">
-        <v>659.0820064423121</v>
+        <v>708.7199413761371</v>
       </c>
       <c r="AC5" t="n">
-        <v>596.180144774863</v>
+        <v>641.0807048658828</v>
       </c>
       <c r="AD5" t="n">
-        <v>481699.1341736125</v>
+        <v>517977.7004917212</v>
       </c>
       <c r="AE5" t="n">
-        <v>659082.0064423122</v>
+        <v>708719.9413761371</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.696173353338913e-06</v>
+        <v>5.022766462162423e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.681249999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>596180.144774863</v>
+        <v>641080.7048658828</v>
       </c>
     </row>
     <row r="6">
@@ -23699,28 +23699,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>453.554085244147</v>
+        <v>489.6620593616634</v>
       </c>
       <c r="AB6" t="n">
-        <v>620.5727088250916</v>
+        <v>669.9772319840694</v>
       </c>
       <c r="AC6" t="n">
-        <v>561.3461204740913</v>
+        <v>606.0355452824599</v>
       </c>
       <c r="AD6" t="n">
-        <v>453554.085244147</v>
+        <v>489662.0593616634</v>
       </c>
       <c r="AE6" t="n">
-        <v>620572.7088250916</v>
+        <v>669977.2319840693</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.808667087470588e-06</v>
+        <v>5.232333756602251e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.454166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>561346.1204740913</v>
+        <v>606035.5452824599</v>
       </c>
     </row>
     <row r="7">
@@ -23805,28 +23805,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>435.4018358181108</v>
+        <v>471.5098099356272</v>
       </c>
       <c r="AB7" t="n">
-        <v>595.7360003396634</v>
+        <v>645.140523498641</v>
       </c>
       <c r="AC7" t="n">
-        <v>538.8797925879729</v>
+        <v>583.5692173963415</v>
       </c>
       <c r="AD7" t="n">
-        <v>435401.8358181108</v>
+        <v>471509.8099356272</v>
       </c>
       <c r="AE7" t="n">
-        <v>595736.0003396634</v>
+        <v>645140.523498641</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.885868669717816e-06</v>
+        <v>5.376154448864879e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.308333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>538879.7925879729</v>
+        <v>583569.2173963415</v>
       </c>
     </row>
     <row r="8">
@@ -23911,28 +23911,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>422.2778806573901</v>
+        <v>446.4636810446802</v>
       </c>
       <c r="AB8" t="n">
-        <v>577.7792259007266</v>
+        <v>610.8713049928247</v>
       </c>
       <c r="AC8" t="n">
-        <v>522.636787498997</v>
+        <v>552.5706050075703</v>
       </c>
       <c r="AD8" t="n">
-        <v>422277.8806573901</v>
+        <v>446463.6810446802</v>
       </c>
       <c r="AE8" t="n">
-        <v>577779.2259007266</v>
+        <v>610871.3049928247</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.941894960834376e-06</v>
+        <v>5.480527179821186e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.207291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>522636.7874989971</v>
+        <v>552570.6050075702</v>
       </c>
     </row>
     <row r="9">
@@ -24017,28 +24017,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>412.3774117760016</v>
+        <v>436.5632121632917</v>
       </c>
       <c r="AB9" t="n">
-        <v>564.23296759935</v>
+        <v>597.3250466914481</v>
       </c>
       <c r="AC9" t="n">
-        <v>510.383365077611</v>
+        <v>540.317182586184</v>
       </c>
       <c r="AD9" t="n">
-        <v>412377.4117760016</v>
+        <v>436563.2121632917</v>
       </c>
       <c r="AE9" t="n">
-        <v>564232.96759935</v>
+        <v>597325.0466914481</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.984686694994269e-06</v>
+        <v>5.560244934961042e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.132291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>510383.3650776109</v>
+        <v>540317.182586184</v>
       </c>
     </row>
     <row r="10">
@@ -24123,28 +24123,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>405.4130020086405</v>
+        <v>429.5988023959307</v>
       </c>
       <c r="AB10" t="n">
-        <v>554.7039549075721</v>
+        <v>587.7960339996703</v>
       </c>
       <c r="AC10" t="n">
-        <v>501.763787983083</v>
+        <v>531.6976054916561</v>
       </c>
       <c r="AD10" t="n">
-        <v>405413.0020086406</v>
+        <v>429598.8023959307</v>
       </c>
       <c r="AE10" t="n">
-        <v>554703.9549075721</v>
+        <v>587796.0339996703</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.015861429158864e-06</v>
+        <v>5.61832110021757e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.079166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>501763.787983083</v>
+        <v>531697.6054916561</v>
       </c>
     </row>
     <row r="11">
@@ -24229,28 +24229,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>398.6909100847918</v>
+        <v>422.8767104720819</v>
       </c>
       <c r="AB11" t="n">
-        <v>545.5064921795965</v>
+        <v>578.5985712716947</v>
       </c>
       <c r="AC11" t="n">
-        <v>493.4441181891455</v>
+        <v>523.3779356977185</v>
       </c>
       <c r="AD11" t="n">
-        <v>398690.9100847918</v>
+        <v>422876.7104720819</v>
       </c>
       <c r="AE11" t="n">
-        <v>545506.4921795966</v>
+        <v>578598.5712716947</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.042183492439347e-06</v>
+        <v>5.667357107674733e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.035416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>493444.1181891455</v>
+        <v>523377.9356977185</v>
       </c>
     </row>
     <row r="12">
@@ -24335,28 +24335,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>393.5688285492211</v>
+        <v>417.7546289365113</v>
       </c>
       <c r="AB12" t="n">
-        <v>538.4982342523397</v>
+        <v>571.5903133444378</v>
       </c>
       <c r="AC12" t="n">
-        <v>487.1047185623142</v>
+        <v>517.0385360708874</v>
       </c>
       <c r="AD12" t="n">
-        <v>393568.8285492211</v>
+        <v>417754.6289365113</v>
       </c>
       <c r="AE12" t="n">
-        <v>538498.2342523397</v>
+        <v>571590.3133444379</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.062623530405756e-06</v>
+        <v>5.705435348102362e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.001041666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>487104.7185623142</v>
+        <v>517038.5360708873</v>
       </c>
     </row>
     <row r="13">
@@ -24441,28 +24441,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>375.4842782266136</v>
+        <v>411.6775036901507</v>
       </c>
       <c r="AB13" t="n">
-        <v>513.7541546668962</v>
+        <v>563.2753224785232</v>
       </c>
       <c r="AC13" t="n">
-        <v>464.7221792039717</v>
+        <v>509.5171162630526</v>
       </c>
       <c r="AD13" t="n">
-        <v>375484.2782266136</v>
+        <v>411677.5036901507</v>
       </c>
       <c r="AE13" t="n">
-        <v>513754.1546668962</v>
+        <v>563275.3224785232</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.085269327864943e-06</v>
+        <v>5.747622751166066e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.964583333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>464722.1792039717</v>
+        <v>509517.1162630526</v>
       </c>
     </row>
     <row r="14">
@@ -24547,28 +24547,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>371.299185195319</v>
+        <v>407.492410658856</v>
       </c>
       <c r="AB14" t="n">
-        <v>508.0279257482051</v>
+        <v>557.5490935598319</v>
       </c>
       <c r="AC14" t="n">
-        <v>459.5424535364676</v>
+        <v>504.3373905955484</v>
       </c>
       <c r="AD14" t="n">
-        <v>371299.1851953189</v>
+        <v>407492.410658856</v>
       </c>
       <c r="AE14" t="n">
-        <v>508027.925748205</v>
+        <v>557549.093559832</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.100562593681536e-06</v>
+        <v>5.776112945442852e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.940625</v>
       </c>
       <c r="AH14" t="n">
-        <v>459542.4535364676</v>
+        <v>504337.3905955484</v>
       </c>
     </row>
     <row r="15">
@@ -24653,28 +24653,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>367.7207152746986</v>
+        <v>403.9139407382356</v>
       </c>
       <c r="AB15" t="n">
-        <v>503.1317053318613</v>
+        <v>552.6528731434884</v>
       </c>
       <c r="AC15" t="n">
-        <v>455.1135215247712</v>
+        <v>499.9084585838521</v>
       </c>
       <c r="AD15" t="n">
-        <v>367720.7152746986</v>
+        <v>403913.9407382356</v>
       </c>
       <c r="AE15" t="n">
-        <v>503131.7053318613</v>
+        <v>552652.8731434883</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.112179593676834e-06</v>
+        <v>5.797754535326181e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.921875</v>
       </c>
       <c r="AH15" t="n">
-        <v>455113.5215247712</v>
+        <v>499908.4585838521</v>
       </c>
     </row>
     <row r="16">
@@ -24759,28 +24759,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>364.4967645154761</v>
+        <v>400.6899899790132</v>
       </c>
       <c r="AB16" t="n">
-        <v>498.7205536724238</v>
+        <v>548.2417214840508</v>
       </c>
       <c r="AC16" t="n">
-        <v>451.1233639886202</v>
+        <v>495.9183010477011</v>
       </c>
       <c r="AD16" t="n">
-        <v>364496.7645154761</v>
+        <v>400689.9899790132</v>
       </c>
       <c r="AE16" t="n">
-        <v>498720.5536724238</v>
+        <v>548241.7214840509</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.122326087343612e-06</v>
+        <v>5.816656683452126e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.90625</v>
       </c>
       <c r="AH16" t="n">
-        <v>451123.3639886202</v>
+        <v>495918.3010477011</v>
       </c>
     </row>
     <row r="17">
@@ -24865,28 +24865,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>360.442726825722</v>
+        <v>396.635952289259</v>
       </c>
       <c r="AB17" t="n">
-        <v>493.1736404537821</v>
+        <v>542.6948082654091</v>
       </c>
       <c r="AC17" t="n">
-        <v>446.1058403824239</v>
+        <v>490.9007774415049</v>
       </c>
       <c r="AD17" t="n">
-        <v>360442.726825722</v>
+        <v>396635.952289259</v>
       </c>
       <c r="AE17" t="n">
-        <v>493173.640453782</v>
+        <v>542694.8082654091</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.133354884807502e-06</v>
+        <v>5.837202496632501e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.888541666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>446105.840382424</v>
+        <v>490900.7774415049</v>
       </c>
     </row>
     <row r="18">
@@ -24971,28 +24971,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>356.6388539744757</v>
+        <v>392.8320794380127</v>
       </c>
       <c r="AB18" t="n">
-        <v>487.9690138036804</v>
+        <v>537.4901816153075</v>
       </c>
       <c r="AC18" t="n">
-        <v>441.3979359950687</v>
+        <v>486.1928730541495</v>
       </c>
       <c r="AD18" t="n">
-        <v>356638.8539744757</v>
+        <v>392832.0794380127</v>
       </c>
       <c r="AE18" t="n">
-        <v>487969.0138036804</v>
+        <v>537490.1816153075</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.145118935435651e-06</v>
+        <v>5.859118030691568e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.870833333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>441397.9359950687</v>
+        <v>486192.8730541495</v>
       </c>
     </row>
     <row r="19">
@@ -25077,28 +25077,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>354.7833286419894</v>
+        <v>390.9765541055265</v>
       </c>
       <c r="AB19" t="n">
-        <v>485.4302021837725</v>
+        <v>534.9513699953995</v>
       </c>
       <c r="AC19" t="n">
-        <v>439.1014249929203</v>
+        <v>483.8963620520011</v>
       </c>
       <c r="AD19" t="n">
-        <v>354783.3286419894</v>
+        <v>390976.5541055265</v>
       </c>
       <c r="AE19" t="n">
-        <v>485430.2021837725</v>
+        <v>534951.3699953995</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.150118656952614e-06</v>
+        <v>5.868432132666672e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.8625</v>
       </c>
       <c r="AH19" t="n">
-        <v>439101.4249929202</v>
+        <v>483896.3620520011</v>
       </c>
     </row>
     <row r="20">
@@ -25183,28 +25183,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>352.2223139351905</v>
+        <v>388.4155393987276</v>
       </c>
       <c r="AB20" t="n">
-        <v>481.9261088779355</v>
+        <v>531.4472766895624</v>
       </c>
       <c r="AC20" t="n">
-        <v>435.9317574341665</v>
+        <v>480.7266944932473</v>
       </c>
       <c r="AD20" t="n">
-        <v>352222.3139351906</v>
+        <v>388415.5393987276</v>
       </c>
       <c r="AE20" t="n">
-        <v>481926.1088779354</v>
+        <v>531447.2766895624</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.155853631633837e-06</v>
+        <v>5.879115955520468e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.854166666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>435931.7574341664</v>
+        <v>480726.6944932473</v>
       </c>
     </row>
     <row r="21">
@@ -25289,28 +25289,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>348.6035085696333</v>
+        <v>384.7967340331704</v>
       </c>
       <c r="AB21" t="n">
-        <v>476.9746997263549</v>
+        <v>526.4958675379819</v>
       </c>
       <c r="AC21" t="n">
-        <v>431.4529038226664</v>
+        <v>476.2478408817473</v>
       </c>
       <c r="AD21" t="n">
-        <v>348603.5085696334</v>
+        <v>384796.7340331704</v>
       </c>
       <c r="AE21" t="n">
-        <v>476974.6997263549</v>
+        <v>526495.8675379819</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.161147454416505e-06</v>
+        <v>5.888977945847048e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.845833333333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>431452.9038226664</v>
+        <v>476247.8408817473</v>
       </c>
     </row>
     <row r="22">
@@ -25395,28 +25395,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>344.3261152099833</v>
+        <v>380.5193406735204</v>
       </c>
       <c r="AB22" t="n">
-        <v>471.1221814264047</v>
+        <v>520.6433492380319</v>
       </c>
       <c r="AC22" t="n">
-        <v>426.1589416552025</v>
+        <v>470.9538787142834</v>
       </c>
       <c r="AD22" t="n">
-        <v>344326.1152099833</v>
+        <v>380519.3406735204</v>
       </c>
       <c r="AE22" t="n">
-        <v>471122.1814264047</v>
+        <v>520643.3492380319</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.173205606310357e-06</v>
+        <v>5.911441368257592e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.827083333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>426158.9416552025</v>
+        <v>470953.8787142834</v>
       </c>
     </row>
     <row r="23">
@@ -25501,28 +25501,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>342.6717638406312</v>
+        <v>378.8649893041683</v>
       </c>
       <c r="AB23" t="n">
-        <v>468.8586248980258</v>
+        <v>518.3797927096529</v>
       </c>
       <c r="AC23" t="n">
-        <v>424.1114157849705</v>
+        <v>468.9063528440513</v>
       </c>
       <c r="AD23" t="n">
-        <v>342671.7638406312</v>
+        <v>378864.9893041683</v>
       </c>
       <c r="AE23" t="n">
-        <v>468858.6248980258</v>
+        <v>518379.7927096529</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.173205606310357e-06</v>
+        <v>5.911441368257592e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.827083333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>424111.4157849704</v>
+        <v>468906.3528440513</v>
       </c>
     </row>
     <row r="24">
@@ -25607,28 +25607,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>338.2253400808774</v>
+        <v>374.4185655444144</v>
       </c>
       <c r="AB24" t="n">
-        <v>462.7748317475589</v>
+        <v>512.2959995591859</v>
       </c>
       <c r="AC24" t="n">
-        <v>418.6082513141268</v>
+        <v>463.4031883732076</v>
       </c>
       <c r="AD24" t="n">
-        <v>338225.3400808774</v>
+        <v>374418.5655444145</v>
       </c>
       <c r="AE24" t="n">
-        <v>462774.8317475589</v>
+        <v>512295.9995591859</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.18055813795295e-06</v>
+        <v>5.925138577044508e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4.816666666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>418608.2513141268</v>
+        <v>463403.1883732076</v>
       </c>
     </row>
     <row r="25">
@@ -25713,28 +25713,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>337.8149402658809</v>
+        <v>374.0081657294179</v>
       </c>
       <c r="AB25" t="n">
-        <v>462.2133046151185</v>
+        <v>511.7344724267456</v>
       </c>
       <c r="AC25" t="n">
-        <v>418.1003155430982</v>
+        <v>462.8952526021792</v>
       </c>
       <c r="AD25" t="n">
-        <v>337814.9402658808</v>
+        <v>374008.1657294179</v>
       </c>
       <c r="AE25" t="n">
-        <v>462213.3046151185</v>
+        <v>511734.4724267456</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.183205049344284e-06</v>
+        <v>5.930069572207798e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>5</v>
+        <v>4.811458333333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>418100.3155430983</v>
+        <v>462895.2526021792</v>
       </c>
     </row>
     <row r="26">
@@ -25819,28 +25819,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>335.3821948464659</v>
+        <v>371.575420310003</v>
       </c>
       <c r="AB26" t="n">
-        <v>458.8847150071218</v>
+        <v>508.4058828187489</v>
       </c>
       <c r="AC26" t="n">
-        <v>415.089401855584</v>
+        <v>459.8843389146647</v>
       </c>
       <c r="AD26" t="n">
-        <v>335382.194846466</v>
+        <v>371575.420310003</v>
       </c>
       <c r="AE26" t="n">
-        <v>458884.7150071218</v>
+        <v>508405.8828187489</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.18923412529121e-06</v>
+        <v>5.941301283413071e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>4.803125000000001</v>
       </c>
       <c r="AH26" t="n">
-        <v>415089.4018555839</v>
+        <v>459884.3389146648</v>
       </c>
     </row>
     <row r="27">
@@ -25925,28 +25925,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>335.8960795359316</v>
+        <v>372.0893049994687</v>
       </c>
       <c r="AB27" t="n">
-        <v>459.5878347102412</v>
+        <v>509.1090025218683</v>
       </c>
       <c r="AC27" t="n">
-        <v>415.7254168010723</v>
+        <v>460.5203538601531</v>
       </c>
       <c r="AD27" t="n">
-        <v>335896.0795359316</v>
+        <v>372089.3049994687</v>
       </c>
       <c r="AE27" t="n">
-        <v>459587.8347102412</v>
+        <v>509109.0025218683</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.18923412529121e-06</v>
+        <v>5.941301283413071e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>5</v>
+        <v>4.803125000000001</v>
       </c>
       <c r="AH27" t="n">
-        <v>415725.4168010723</v>
+        <v>460520.3538601531</v>
       </c>
     </row>
     <row r="28">
@@ -26031,28 +26031,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>337.2507884096343</v>
+        <v>373.4440138731713</v>
       </c>
       <c r="AB28" t="n">
-        <v>461.4414071567786</v>
+        <v>510.9625749684057</v>
       </c>
       <c r="AC28" t="n">
-        <v>417.4020868948174</v>
+        <v>462.1970239538983</v>
       </c>
       <c r="AD28" t="n">
-        <v>337250.7884096343</v>
+        <v>373444.0138731714</v>
       </c>
       <c r="AE28" t="n">
-        <v>461441.4071567786</v>
+        <v>510962.5749684057</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.188498872126951e-06</v>
+        <v>5.939931562534378e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>5</v>
+        <v>4.804166666666666</v>
       </c>
       <c r="AH28" t="n">
-        <v>417402.0868948174</v>
+        <v>462197.0239538983</v>
       </c>
     </row>
   </sheetData>
@@ -26328,28 +26328,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>718.6673778185487</v>
+        <v>763.0640604289645</v>
       </c>
       <c r="AB2" t="n">
-        <v>983.312411698396</v>
+        <v>1044.057911489369</v>
       </c>
       <c r="AC2" t="n">
-        <v>889.4664552135379</v>
+        <v>944.4144897613052</v>
       </c>
       <c r="AD2" t="n">
-        <v>718667.3778185487</v>
+        <v>763064.0604289644</v>
       </c>
       <c r="AE2" t="n">
-        <v>983312.411698396</v>
+        <v>1044057.911489369</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.014191528294694e-06</v>
+        <v>4.037441590858336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.227083333333335</v>
       </c>
       <c r="AH2" t="n">
-        <v>889466.4552135379</v>
+        <v>944414.4897613052</v>
       </c>
     </row>
     <row r="3">
@@ -26434,28 +26434,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>411.2187323883152</v>
+        <v>455.5299846356082</v>
       </c>
       <c r="AB3" t="n">
-        <v>562.6476113437906</v>
+        <v>623.2762215430178</v>
       </c>
       <c r="AC3" t="n">
-        <v>508.9493129980207</v>
+        <v>563.7916137326225</v>
       </c>
       <c r="AD3" t="n">
-        <v>411218.7323883153</v>
+        <v>455529.9846356082</v>
       </c>
       <c r="AE3" t="n">
-        <v>562647.6113437905</v>
+        <v>623276.2215430178</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.77939658722349e-06</v>
+        <v>5.571293107486454e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.962499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>508949.3129980207</v>
+        <v>563791.6137326225</v>
       </c>
     </row>
     <row r="4">
@@ -26540,28 +26540,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>357.6429651998165</v>
+        <v>390.8338234665513</v>
       </c>
       <c r="AB4" t="n">
-        <v>489.3428830804525</v>
+        <v>534.7560796383225</v>
       </c>
       <c r="AC4" t="n">
-        <v>442.6406851163032</v>
+        <v>483.7197099325118</v>
       </c>
       <c r="AD4" t="n">
-        <v>357642.9651998165</v>
+        <v>390833.8234665513</v>
       </c>
       <c r="AE4" t="n">
-        <v>489342.8830804524</v>
+        <v>534756.0796383225</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.041888967105509e-06</v>
+        <v>6.097458388658261e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.447916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>442640.6851163033</v>
+        <v>483719.7099325118</v>
       </c>
     </row>
     <row r="5">
@@ -26646,28 +26646,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>332.1822668740055</v>
+        <v>354.4233233607746</v>
       </c>
       <c r="AB5" t="n">
-        <v>454.5064323843425</v>
+        <v>484.9376270757023</v>
       </c>
       <c r="AC5" t="n">
-        <v>411.1289763813645</v>
+        <v>438.6558605618307</v>
       </c>
       <c r="AD5" t="n">
-        <v>332182.2668740055</v>
+        <v>354423.3233607746</v>
       </c>
       <c r="AE5" t="n">
-        <v>454506.4323843425</v>
+        <v>484937.6270757022</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.182998507078449e-06</v>
+        <v>6.380312088294256e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.20625</v>
       </c>
       <c r="AH5" t="n">
-        <v>411128.9763813645</v>
+        <v>438655.8605618307</v>
       </c>
     </row>
     <row r="6">
@@ -26752,28 +26752,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>317.4526252811486</v>
+        <v>339.6936817679178</v>
       </c>
       <c r="AB6" t="n">
-        <v>434.3526869310712</v>
+        <v>464.783881622431</v>
       </c>
       <c r="AC6" t="n">
-        <v>392.8986761081939</v>
+        <v>420.4255602886602</v>
       </c>
       <c r="AD6" t="n">
-        <v>317452.6252811486</v>
+        <v>339693.6817679178</v>
       </c>
       <c r="AE6" t="n">
-        <v>434352.6869310712</v>
+        <v>464783.8816224309</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.264291601696456e-06</v>
+        <v>6.543263881432919e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.076041666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>392898.6761081939</v>
+        <v>420425.5602886602</v>
       </c>
     </row>
     <row r="7">
@@ -26858,28 +26858,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>295.4327701993602</v>
+        <v>328.7088798121158</v>
       </c>
       <c r="AB7" t="n">
-        <v>404.2241497607233</v>
+        <v>449.7539909712427</v>
       </c>
       <c r="AC7" t="n">
-        <v>365.6455642397166</v>
+        <v>406.8301013066373</v>
       </c>
       <c r="AD7" t="n">
-        <v>295432.7701993602</v>
+        <v>328708.8798121157</v>
       </c>
       <c r="AE7" t="n">
-        <v>404224.1497607233</v>
+        <v>449753.9909712427</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.319017285744586e-06</v>
+        <v>6.652961370356011e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.992708333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>365645.5642397166</v>
+        <v>406830.1013066373</v>
       </c>
     </row>
     <row r="8">
@@ -26964,28 +26964,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>287.4082064113974</v>
+        <v>320.6843160241529</v>
       </c>
       <c r="AB8" t="n">
-        <v>393.2445875672637</v>
+        <v>438.774428777783</v>
       </c>
       <c r="AC8" t="n">
-        <v>355.7138760520884</v>
+        <v>396.8984131190091</v>
       </c>
       <c r="AD8" t="n">
-        <v>287408.2064113974</v>
+        <v>320684.3160241529</v>
       </c>
       <c r="AE8" t="n">
-        <v>393244.5875672637</v>
+        <v>438774.428777783</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.355129873764718e-06</v>
+        <v>6.725348957523285e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.939583333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>355713.8760520884</v>
+        <v>396898.4131190091</v>
       </c>
     </row>
     <row r="9">
@@ -27070,28 +27070,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>280.63045794654</v>
+        <v>313.9065675592955</v>
       </c>
       <c r="AB9" t="n">
-        <v>383.9709731044868</v>
+        <v>429.5008143150061</v>
       </c>
       <c r="AC9" t="n">
-        <v>347.3253223380393</v>
+        <v>388.50985940496</v>
       </c>
       <c r="AD9" t="n">
-        <v>280630.45794654</v>
+        <v>313906.5675592955</v>
       </c>
       <c r="AE9" t="n">
-        <v>383970.9731044868</v>
+        <v>429500.8143150061</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.384242664987997e-06</v>
+        <v>6.783705470525976e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.896875</v>
       </c>
       <c r="AH9" t="n">
-        <v>347325.3223380393</v>
+        <v>388509.85940496</v>
       </c>
     </row>
     <row r="10">
@@ -27176,28 +27176,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>272.6158269570325</v>
+        <v>305.891936569788</v>
       </c>
       <c r="AB10" t="n">
-        <v>373.0050014040778</v>
+        <v>418.5348426145971</v>
       </c>
       <c r="AC10" t="n">
-        <v>337.4059275858793</v>
+        <v>378.5904646528002</v>
       </c>
       <c r="AD10" t="n">
-        <v>272615.8269570325</v>
+        <v>305891.936569788</v>
       </c>
       <c r="AE10" t="n">
-        <v>373005.0014040778</v>
+        <v>418534.8426145971</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.410810075557874e-06</v>
+        <v>6.836959774741547e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.858333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>337405.9275858793</v>
+        <v>378590.4646528002</v>
       </c>
     </row>
     <row r="11">
@@ -27282,28 +27282,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>266.9989638375758</v>
+        <v>300.2750734503313</v>
       </c>
       <c r="AB11" t="n">
-        <v>365.3197614855253</v>
+        <v>410.8496026960445</v>
       </c>
       <c r="AC11" t="n">
-        <v>330.4541561788515</v>
+        <v>371.6386932457722</v>
       </c>
       <c r="AD11" t="n">
-        <v>266998.9638375759</v>
+        <v>300275.0734503313</v>
       </c>
       <c r="AE11" t="n">
-        <v>365319.7614855253</v>
+        <v>410849.6026960445</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.431650379657598e-06</v>
+        <v>6.878734109186096e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.829166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>330454.1561788514</v>
+        <v>371638.6932457722</v>
       </c>
     </row>
     <row r="12">
@@ -27388,28 +27388,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>263.2589898418077</v>
+        <v>296.5350994545632</v>
       </c>
       <c r="AB12" t="n">
-        <v>360.2025640685073</v>
+        <v>405.7324052790266</v>
       </c>
       <c r="AC12" t="n">
-        <v>325.8253369012821</v>
+        <v>367.0098739682028</v>
       </c>
       <c r="AD12" t="n">
-        <v>263258.9898418077</v>
+        <v>296535.0994545632</v>
       </c>
       <c r="AE12" t="n">
-        <v>360202.5640685073</v>
+        <v>405732.4052790266</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.44071829823534e-06</v>
+        <v>6.896910727990212e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.816666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>325825.3369012821</v>
+        <v>367009.8739682028</v>
       </c>
     </row>
     <row r="13">
@@ -27494,28 +27494,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>264.1834330271701</v>
+        <v>297.4595426399255</v>
       </c>
       <c r="AB13" t="n">
-        <v>361.4674280182752</v>
+        <v>406.9972692287944</v>
       </c>
       <c r="AC13" t="n">
-        <v>326.9694840109318</v>
+        <v>368.1540210778525</v>
       </c>
       <c r="AD13" t="n">
-        <v>264183.4330271701</v>
+        <v>297459.5426399256</v>
       </c>
       <c r="AE13" t="n">
-        <v>361467.4280182752</v>
+        <v>406997.2692287944</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.440877384526178e-06</v>
+        <v>6.897229616039408e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.815625</v>
       </c>
       <c r="AH13" t="n">
-        <v>326969.4840109317</v>
+        <v>368154.0210778525</v>
       </c>
     </row>
   </sheetData>
@@ -27791,28 +27791,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>501.3279372621602</v>
+        <v>533.2637737913274</v>
       </c>
       <c r="AB2" t="n">
-        <v>685.939000789739</v>
+        <v>729.6350212386172</v>
       </c>
       <c r="AC2" t="n">
-        <v>620.4739452757996</v>
+        <v>659.9996788607868</v>
       </c>
       <c r="AD2" t="n">
-        <v>501327.9372621602</v>
+        <v>533263.7737913274</v>
       </c>
       <c r="AE2" t="n">
-        <v>685939.000789739</v>
+        <v>729635.0212386172</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.417950190902031e-06</v>
+        <v>5.058503012935244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.138541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>620473.9452757996</v>
+        <v>659999.6788607868</v>
       </c>
     </row>
     <row r="3">
@@ -27897,28 +27897,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>327.8597462481675</v>
+        <v>359.7954932687837</v>
       </c>
       <c r="AB3" t="n">
-        <v>448.5921689679197</v>
+        <v>492.2880669472498</v>
       </c>
       <c r="AC3" t="n">
-        <v>405.7791619646842</v>
+        <v>445.304784768445</v>
       </c>
       <c r="AD3" t="n">
-        <v>327859.7462481675</v>
+        <v>359795.4932687837</v>
       </c>
       <c r="AE3" t="n">
-        <v>448592.1689679198</v>
+        <v>492288.0669472498</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.079650904511229e-06</v>
+        <v>6.442822287189952e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.605208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>405779.1619646842</v>
+        <v>445304.784768445</v>
       </c>
     </row>
     <row r="4">
@@ -28003,28 +28003,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>292.0120992635255</v>
+        <v>313.3026867858207</v>
       </c>
       <c r="AB4" t="n">
-        <v>399.5438368769634</v>
+        <v>428.6745579993984</v>
       </c>
       <c r="AC4" t="n">
-        <v>361.4119338487222</v>
+        <v>387.7624598324559</v>
       </c>
       <c r="AD4" t="n">
-        <v>292012.0992635255</v>
+        <v>313302.6867858207</v>
       </c>
       <c r="AE4" t="n">
-        <v>399543.8368769634</v>
+        <v>428674.5579993984</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.305354979626613e-06</v>
+        <v>6.915009327394036e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.222916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>361411.9338487222</v>
+        <v>387762.4598324558</v>
       </c>
     </row>
     <row r="5">
@@ -28109,28 +28109,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>273.2908232009207</v>
+        <v>294.5814107232159</v>
       </c>
       <c r="AB5" t="n">
-        <v>373.9285610436984</v>
+        <v>403.0592821661335</v>
       </c>
       <c r="AC5" t="n">
-        <v>338.2413439897186</v>
+        <v>364.5918699734523</v>
       </c>
       <c r="AD5" t="n">
-        <v>273290.8232009207</v>
+        <v>294581.4107232159</v>
       </c>
       <c r="AE5" t="n">
-        <v>373928.5610436985</v>
+        <v>403059.2821661335</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.422847042223388e-06</v>
+        <v>7.16081007005534e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.042708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>338241.3439897186</v>
+        <v>364591.8699734523</v>
       </c>
     </row>
     <row r="6">
@@ -28215,28 +28215,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>249.8855955446381</v>
+        <v>281.7360017106857</v>
       </c>
       <c r="AB6" t="n">
-        <v>341.9044959984418</v>
+        <v>385.4836268557397</v>
       </c>
       <c r="AC6" t="n">
-        <v>309.2736107664264</v>
+        <v>348.6936105382954</v>
       </c>
       <c r="AD6" t="n">
-        <v>249885.5955446381</v>
+        <v>281736.0017106857</v>
       </c>
       <c r="AE6" t="n">
-        <v>341904.4959984418</v>
+        <v>385483.6268557397</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.493773139249367e-06</v>
+        <v>7.309191900604054e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.940625</v>
       </c>
       <c r="AH6" t="n">
-        <v>309273.6107664264</v>
+        <v>348693.6105382954</v>
       </c>
     </row>
     <row r="7">
@@ -28321,28 +28321,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>240.7398659766114</v>
+        <v>272.5902721426589</v>
       </c>
       <c r="AB7" t="n">
-        <v>329.3909053223617</v>
+        <v>372.9700361796532</v>
       </c>
       <c r="AC7" t="n">
-        <v>297.9542996215325</v>
+        <v>337.3742993933998</v>
       </c>
       <c r="AD7" t="n">
-        <v>240739.8659766114</v>
+        <v>272590.2721426589</v>
       </c>
       <c r="AE7" t="n">
-        <v>329390.9053223617</v>
+        <v>372970.0361796532</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.536527655680916e-06</v>
+        <v>7.398637022757251e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.881250000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>297954.2996215326</v>
+        <v>337374.2993933998</v>
       </c>
     </row>
     <row r="8">
@@ -28427,28 +28427,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>234.7694471847443</v>
+        <v>266.6198533507917</v>
       </c>
       <c r="AB8" t="n">
-        <v>321.2219149350456</v>
+        <v>364.8010457923329</v>
       </c>
       <c r="AC8" t="n">
-        <v>290.5649462115294</v>
+        <v>329.9849459833953</v>
       </c>
       <c r="AD8" t="n">
-        <v>234769.4471847443</v>
+        <v>266619.8533507917</v>
       </c>
       <c r="AE8" t="n">
-        <v>321221.9149350456</v>
+        <v>364801.0457923329</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.560556356776166e-06</v>
+        <v>7.448906568153427e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.847916666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>290564.9462115294</v>
+        <v>329984.9459833953</v>
       </c>
     </row>
     <row r="9">
@@ -28533,28 +28533,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>235.8361836773594</v>
+        <v>267.6865898434068</v>
       </c>
       <c r="AB9" t="n">
-        <v>322.6814708653335</v>
+        <v>366.2606017226215</v>
       </c>
       <c r="AC9" t="n">
-        <v>291.8852041723306</v>
+        <v>331.3052039441968</v>
       </c>
       <c r="AD9" t="n">
-        <v>235836.1836773594</v>
+        <v>267686.5898434068</v>
       </c>
       <c r="AE9" t="n">
-        <v>322681.4708653335</v>
+        <v>366260.6017226215</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.563207799655642e-06</v>
+        <v>7.454453552473005e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.844791666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>291885.2041723306</v>
+        <v>331305.2039441968</v>
       </c>
     </row>
   </sheetData>
@@ -53923,28 +53923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>376.4765059382539</v>
+        <v>407.1874102009152</v>
       </c>
       <c r="AB2" t="n">
-        <v>515.1117643959595</v>
+        <v>557.1317784776071</v>
       </c>
       <c r="AC2" t="n">
-        <v>465.9502205659105</v>
+        <v>503.9599034790656</v>
       </c>
       <c r="AD2" t="n">
-        <v>376476.5059382539</v>
+        <v>407187.4102009152</v>
       </c>
       <c r="AE2" t="n">
-        <v>515111.7643959596</v>
+        <v>557131.7784776071</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.753081067350305e-06</v>
+        <v>5.984801163143043e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.486458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>465950.2205659105</v>
+        <v>503959.9034790656</v>
       </c>
     </row>
     <row r="3">
@@ -54029,28 +54029,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>270.1721130162542</v>
+        <v>300.7976764243439</v>
       </c>
       <c r="AB3" t="n">
-        <v>369.6614041812547</v>
+        <v>411.5646511407045</v>
       </c>
       <c r="AC3" t="n">
-        <v>334.3814385892343</v>
+        <v>372.2854984704506</v>
       </c>
       <c r="AD3" t="n">
-        <v>270172.1130162542</v>
+        <v>300797.676424344</v>
       </c>
       <c r="AE3" t="n">
-        <v>369661.4041812547</v>
+        <v>411564.6511407045</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.334553731139361e-06</v>
+        <v>7.248838868334899e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.355208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>334381.4385892343</v>
+        <v>372285.4984704506</v>
       </c>
     </row>
     <row r="4">
@@ -54135,28 +54135,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>243.5784722702249</v>
+        <v>264.109332184567</v>
       </c>
       <c r="AB4" t="n">
-        <v>333.2748116837532</v>
+        <v>361.3660399763273</v>
       </c>
       <c r="AC4" t="n">
-        <v>301.4675314108909</v>
+        <v>326.8777723014084</v>
       </c>
       <c r="AD4" t="n">
-        <v>243578.4722702249</v>
+        <v>264109.332184567</v>
       </c>
       <c r="AE4" t="n">
-        <v>333274.8116837532</v>
+        <v>361366.0399763273</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.527063696185089e-06</v>
+        <v>7.667327766604491e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>301467.5314108909</v>
+        <v>326877.7723014083</v>
       </c>
     </row>
     <row r="5">
@@ -54241,28 +54241,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>218.0823723556311</v>
+        <v>248.7931871097411</v>
       </c>
       <c r="AB5" t="n">
-        <v>298.3899229720802</v>
+        <v>340.4098145841576</v>
       </c>
       <c r="AC5" t="n">
-        <v>269.9120075166001</v>
+        <v>307.9215796485225</v>
       </c>
       <c r="AD5" t="n">
-        <v>218082.3723556311</v>
+        <v>248793.1871097411</v>
       </c>
       <c r="AE5" t="n">
-        <v>298389.9229720802</v>
+        <v>340409.8145841576</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.622890116897967e-06</v>
+        <v>7.875640584175907e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.929166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>269912.0075166001</v>
+        <v>307921.5796485225</v>
       </c>
     </row>
     <row r="6">
@@ -54347,28 +54347,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>213.7943592480843</v>
+        <v>244.5051740021943</v>
       </c>
       <c r="AB6" t="n">
-        <v>292.5228742645504</v>
+        <v>334.5427658766279</v>
       </c>
       <c r="AC6" t="n">
-        <v>264.6049017032605</v>
+        <v>302.6144738351829</v>
       </c>
       <c r="AD6" t="n">
-        <v>213794.3592480843</v>
+        <v>244505.1740021943</v>
       </c>
       <c r="AE6" t="n">
-        <v>292522.8742645504</v>
+        <v>334542.7658766279</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.649460949117101e-06</v>
+        <v>7.93340174110537e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.892708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>264604.9017032605</v>
+        <v>302614.473835183</v>
       </c>
     </row>
     <row r="7">
@@ -54453,28 +54453,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>215.4134991937166</v>
+        <v>246.1243139478265</v>
       </c>
       <c r="AB7" t="n">
-        <v>294.7382529695764</v>
+        <v>336.7581445816539</v>
       </c>
       <c r="AC7" t="n">
-        <v>266.6088477739831</v>
+        <v>304.6184199059056</v>
       </c>
       <c r="AD7" t="n">
-        <v>215413.4991937166</v>
+        <v>246124.3139478265</v>
       </c>
       <c r="AE7" t="n">
-        <v>294738.2529695764</v>
+        <v>336758.1445816539</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.648260976049141e-06</v>
+        <v>7.930793172727912e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.894791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>266608.8477739831</v>
+        <v>304618.4199059056</v>
       </c>
     </row>
   </sheetData>
@@ -54750,28 +54750,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.1754917665617</v>
+        <v>236.7126237896831</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.8348918893967</v>
+        <v>323.880654892823</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.6506495758381</v>
+        <v>292.9699397593023</v>
       </c>
       <c r="AD2" t="n">
-        <v>208175.4917665617</v>
+        <v>236712.623789683</v>
       </c>
       <c r="AE2" t="n">
-        <v>284834.8918893967</v>
+        <v>323880.654892823</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.467862787366754e-06</v>
+        <v>8.248405145550084e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.527083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>257650.6495758381</v>
+        <v>292969.9397593023</v>
       </c>
     </row>
     <row r="3">
@@ -54856,28 +54856,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.5478164311099</v>
+        <v>200.5726606217418</v>
       </c>
       <c r="AB3" t="n">
-        <v>248.4017317653224</v>
+        <v>274.4323629038216</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.6946191197323</v>
+        <v>248.2409233566017</v>
       </c>
       <c r="AD3" t="n">
-        <v>181547.8164311099</v>
+        <v>200572.6606217418</v>
       </c>
       <c r="AE3" t="n">
-        <v>248401.7317653224</v>
+        <v>274432.3629038216</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.749553042431403e-06</v>
+        <v>8.91841301258304e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.111458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>224694.6191197323</v>
+        <v>248240.9233566017</v>
       </c>
     </row>
   </sheetData>
@@ -55153,28 +55153,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1006.966917542815</v>
+        <v>1064.583199048582</v>
       </c>
       <c r="AB2" t="n">
-        <v>1377.776560827176</v>
+        <v>1456.609699034313</v>
       </c>
       <c r="AC2" t="n">
-        <v>1246.283499583378</v>
+        <v>1317.59291372303</v>
       </c>
       <c r="AD2" t="n">
-        <v>1006966.917542815</v>
+        <v>1064583.199048582</v>
       </c>
       <c r="AE2" t="n">
-        <v>1377776.560827176</v>
+        <v>1456609.699034313</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.680257504892362e-06</v>
+        <v>3.260671075959681e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.539583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1246283.499583378</v>
+        <v>1317592.91372303</v>
       </c>
     </row>
     <row r="3">
@@ -55259,28 +55259,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>510.2590279312491</v>
+        <v>544.7435454886893</v>
       </c>
       <c r="AB3" t="n">
-        <v>698.1589130550989</v>
+        <v>745.3421513267317</v>
       </c>
       <c r="AC3" t="n">
-        <v>631.5276062653081</v>
+        <v>674.207742498387</v>
       </c>
       <c r="AD3" t="n">
-        <v>510259.0279312491</v>
+        <v>544743.5454886893</v>
       </c>
       <c r="AE3" t="n">
-        <v>698158.9130550988</v>
+        <v>745342.1513267317</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.526694916468633e-06</v>
+        <v>4.903249060286989e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.34375</v>
       </c>
       <c r="AH3" t="n">
-        <v>631527.6062653081</v>
+        <v>674207.742498387</v>
       </c>
     </row>
     <row r="4">
@@ -55365,28 +55365,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>421.1770660788275</v>
+        <v>455.7468349822882</v>
       </c>
       <c r="AB4" t="n">
-        <v>576.2730428298254</v>
+        <v>623.5729257541075</v>
       </c>
       <c r="AC4" t="n">
-        <v>521.2743524264415</v>
+        <v>564.0600009102328</v>
       </c>
       <c r="AD4" t="n">
-        <v>421177.0660788275</v>
+        <v>455746.8349822882</v>
       </c>
       <c r="AE4" t="n">
-        <v>576273.0428298254</v>
+        <v>623572.9257541074</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.825202202136324e-06</v>
+        <v>5.482525789898874e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.672916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>521274.3524264415</v>
+        <v>564060.0009102328</v>
       </c>
     </row>
     <row r="5">
@@ -55471,28 +55471,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>388.7295960652366</v>
+        <v>423.1287727681051</v>
       </c>
       <c r="AB5" t="n">
-        <v>531.8769828758823</v>
+        <v>578.9434540253175</v>
       </c>
       <c r="AC5" t="n">
-        <v>481.1153901242413</v>
+        <v>523.6899033253815</v>
       </c>
       <c r="AD5" t="n">
-        <v>388729.5960652366</v>
+        <v>423128.7727681051</v>
       </c>
       <c r="AE5" t="n">
-        <v>531876.9828758823</v>
+        <v>578943.4540253174</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.977533239667774e-06</v>
+        <v>5.778136079752362e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.383333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>481115.3901242413</v>
+        <v>523689.9033253815</v>
       </c>
     </row>
     <row r="6">
@@ -55577,28 +55577,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>369.5772782698396</v>
+        <v>392.6238803806978</v>
       </c>
       <c r="AB6" t="n">
-        <v>505.671936727592</v>
+        <v>537.2053144799951</v>
       </c>
       <c r="AC6" t="n">
-        <v>457.4113168013305</v>
+        <v>485.9351932384179</v>
       </c>
       <c r="AD6" t="n">
-        <v>369577.2782698396</v>
+        <v>392623.8803806978</v>
       </c>
       <c r="AE6" t="n">
-        <v>505671.936727592</v>
+        <v>537205.3144799951</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.072316996354009e-06</v>
+        <v>5.962071371216754e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.216666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>457411.3168013305</v>
+        <v>485935.1932384179</v>
       </c>
     </row>
     <row r="7">
@@ -55683,28 +55683,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>356.0296664068898</v>
+        <v>379.0762685177479</v>
       </c>
       <c r="AB7" t="n">
-        <v>487.1354964982506</v>
+        <v>518.6688742506537</v>
       </c>
       <c r="AC7" t="n">
-        <v>440.6439684114201</v>
+        <v>469.1678448485076</v>
       </c>
       <c r="AD7" t="n">
-        <v>356029.6664068898</v>
+        <v>379076.2685177479</v>
       </c>
       <c r="AE7" t="n">
-        <v>487135.4964982506</v>
+        <v>518668.8742506537</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.13925033102692e-06</v>
+        <v>6.091960741000862e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.105208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>440643.9684114201</v>
+        <v>469167.8448485075</v>
       </c>
     </row>
     <row r="8">
@@ -55789,28 +55789,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>347.1766634748842</v>
+        <v>370.2232655857424</v>
       </c>
       <c r="AB8" t="n">
-        <v>475.0224273197561</v>
+        <v>506.5558050721592</v>
       </c>
       <c r="AC8" t="n">
-        <v>429.6869535545218</v>
+        <v>458.2108299916092</v>
       </c>
       <c r="AD8" t="n">
-        <v>347176.6634748842</v>
+        <v>370223.2655857424</v>
       </c>
       <c r="AE8" t="n">
-        <v>475022.4273197561</v>
+        <v>506555.8050721592</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.18171837785387e-06</v>
+        <v>6.174373306656986e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.037500000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>429686.9535545218</v>
+        <v>458210.8299916092</v>
       </c>
     </row>
     <row r="9">
@@ -55895,28 +55895,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>328.0812903524566</v>
+        <v>362.5657184013456</v>
       </c>
       <c r="AB9" t="n">
-        <v>448.8952953852441</v>
+        <v>496.0784111873285</v>
       </c>
       <c r="AC9" t="n">
-        <v>406.0533584221797</v>
+        <v>448.7333838740321</v>
       </c>
       <c r="AD9" t="n">
-        <v>328081.2903524566</v>
+        <v>362565.7184013457</v>
       </c>
       <c r="AE9" t="n">
-        <v>448895.2953852441</v>
+        <v>496078.4111873285</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.215569719527525e-06</v>
+        <v>6.240064482179983e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.984375</v>
       </c>
       <c r="AH9" t="n">
-        <v>406053.3584221797</v>
+        <v>448733.3838740321</v>
       </c>
     </row>
     <row r="10">
@@ -56001,28 +56001,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>320.4537962978689</v>
+        <v>354.938224346758</v>
       </c>
       <c r="AB10" t="n">
-        <v>438.4590215184686</v>
+        <v>485.642137320553</v>
       </c>
       <c r="AC10" t="n">
-        <v>396.6131078858469</v>
+        <v>439.2931333376992</v>
       </c>
       <c r="AD10" t="n">
-        <v>320453.7962978689</v>
+        <v>354938.224346758</v>
       </c>
       <c r="AE10" t="n">
-        <v>438459.0215184686</v>
+        <v>485642.137320553</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.247882363852378e-06</v>
+        <v>6.302769695179207e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.935416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>396613.1078858469</v>
+        <v>439293.1333376992</v>
       </c>
     </row>
     <row r="11">
@@ -56107,28 +56107,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>314.4365425649067</v>
+        <v>348.9209706137958</v>
       </c>
       <c r="AB11" t="n">
-        <v>430.2259494985305</v>
+        <v>477.4090653006148</v>
       </c>
       <c r="AC11" t="n">
-        <v>389.1657887043025</v>
+        <v>431.8458141561549</v>
       </c>
       <c r="AD11" t="n">
-        <v>314436.5425649068</v>
+        <v>348920.9706137958</v>
       </c>
       <c r="AE11" t="n">
-        <v>430225.9494985305</v>
+        <v>477409.0653006148</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.270501214879776e-06</v>
+        <v>6.346663344278665e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.901041666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>389165.7887043025</v>
+        <v>431845.8141561549</v>
       </c>
     </row>
     <row r="12">
@@ -56213,28 +56213,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>309.7286916405386</v>
+        <v>344.2131196894277</v>
       </c>
       <c r="AB12" t="n">
-        <v>423.7844601680856</v>
+        <v>470.9675759701699</v>
       </c>
       <c r="AC12" t="n">
-        <v>383.3390660748683</v>
+        <v>426.0190915267206</v>
       </c>
       <c r="AD12" t="n">
-        <v>309728.6916405386</v>
+        <v>344213.1196894277</v>
       </c>
       <c r="AE12" t="n">
-        <v>423784.4601680856</v>
+        <v>470967.57597017</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.283887881814357e-06</v>
+        <v>6.372641218235486e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.881250000000001</v>
       </c>
       <c r="AH12" t="n">
-        <v>383339.0660748683</v>
+        <v>426019.0915267206</v>
       </c>
     </row>
     <row r="13">
@@ -56319,28 +56319,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>304.9734288142516</v>
+        <v>339.4578568631407</v>
       </c>
       <c r="AB13" t="n">
-        <v>417.27809978177</v>
+        <v>464.4612155838544</v>
       </c>
       <c r="AC13" t="n">
-        <v>377.4536635920884</v>
+        <v>420.1336890439408</v>
       </c>
       <c r="AD13" t="n">
-        <v>304973.4288142516</v>
+        <v>339457.8568631407</v>
       </c>
       <c r="AE13" t="n">
-        <v>417278.09978177</v>
+        <v>464461.2155838544</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.300044203976784e-06</v>
+        <v>6.403993824735098e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.857291666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>377453.6635920884</v>
+        <v>420133.6890439407</v>
       </c>
     </row>
     <row r="14">
@@ -56425,28 +56425,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>299.6484565517286</v>
+        <v>334.1328846006177</v>
       </c>
       <c r="AB14" t="n">
-        <v>409.9922378109896</v>
+        <v>457.175353613074</v>
       </c>
       <c r="AC14" t="n">
-        <v>370.8631540620278</v>
+        <v>413.5431795138802</v>
       </c>
       <c r="AD14" t="n">
-        <v>299648.4565517286</v>
+        <v>334132.8846006177</v>
       </c>
       <c r="AE14" t="n">
-        <v>409992.2378109897</v>
+        <v>457175.3536130741</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.31589278666945e-06</v>
+        <v>6.434749238729956e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>370863.1540620278</v>
+        <v>413543.1795138802</v>
       </c>
     </row>
     <row r="15">
@@ -56531,28 +56531,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>295.0895419852906</v>
+        <v>329.5739700341797</v>
       </c>
       <c r="AB15" t="n">
-        <v>403.7545297760732</v>
+        <v>450.9376455781576</v>
       </c>
       <c r="AC15" t="n">
-        <v>365.2207641272857</v>
+        <v>407.900789579138</v>
       </c>
       <c r="AD15" t="n">
-        <v>295089.5419852906</v>
+        <v>329573.9700341797</v>
       </c>
       <c r="AE15" t="n">
-        <v>403754.5297760732</v>
+        <v>450937.6455781576</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.327279147050589e-06</v>
+        <v>6.456845361405874e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.817708333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>365220.7641272857</v>
+        <v>407900.789579138</v>
       </c>
     </row>
     <row r="16">
@@ -56637,28 +56637,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>292.7198699300403</v>
+        <v>327.2042979789294</v>
       </c>
       <c r="AB16" t="n">
-        <v>400.5122399275269</v>
+        <v>447.6953557296113</v>
       </c>
       <c r="AC16" t="n">
-        <v>362.2879138713022</v>
+        <v>404.9679393231546</v>
       </c>
       <c r="AD16" t="n">
-        <v>292719.8699300403</v>
+        <v>327204.2979789294</v>
       </c>
       <c r="AE16" t="n">
-        <v>400512.2399275269</v>
+        <v>447695.3557296113</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.330972020687715e-06</v>
+        <v>6.464011671462928e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.811458333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>362287.9138713022</v>
+        <v>404967.9393231546</v>
       </c>
     </row>
     <row r="17">
@@ -56743,28 +56743,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>291.4769334190631</v>
+        <v>325.9613614679521</v>
       </c>
       <c r="AB17" t="n">
-        <v>398.811599358719</v>
+        <v>445.9947151608034</v>
       </c>
       <c r="AC17" t="n">
-        <v>360.7495800515172</v>
+        <v>403.4296055033697</v>
       </c>
       <c r="AD17" t="n">
-        <v>291476.933419063</v>
+        <v>325961.3614679521</v>
       </c>
       <c r="AE17" t="n">
-        <v>398811.599358719</v>
+        <v>445994.7151608033</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.336203591673644e-06</v>
+        <v>6.474163944043755e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.804166666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>360749.5800515172</v>
+        <v>403429.6055033696</v>
       </c>
     </row>
     <row r="18">
@@ -56849,28 +56849,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>291.9156383382803</v>
+        <v>326.4000663871695</v>
       </c>
       <c r="AB18" t="n">
-        <v>399.4118547834872</v>
+        <v>446.5949705855716</v>
       </c>
       <c r="AC18" t="n">
-        <v>361.2925479410094</v>
+        <v>403.9725733928617</v>
       </c>
       <c r="AD18" t="n">
-        <v>291915.6383382803</v>
+        <v>326400.0663871695</v>
       </c>
       <c r="AE18" t="n">
-        <v>399411.8547834872</v>
+        <v>446594.9705855716</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.334818764059721e-06</v>
+        <v>6.471476577772359e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.806249999999999</v>
       </c>
       <c r="AH18" t="n">
-        <v>361292.5479410094</v>
+        <v>403972.5733928617</v>
       </c>
     </row>
   </sheetData>
@@ -57146,28 +57146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1600.682461089792</v>
+        <v>1672.603445314538</v>
       </c>
       <c r="AB2" t="n">
-        <v>2190.124360389329</v>
+        <v>2288.529823935518</v>
       </c>
       <c r="AC2" t="n">
-        <v>1981.101965292617</v>
+        <v>2070.115749510892</v>
       </c>
       <c r="AD2" t="n">
-        <v>1600682.461089791</v>
+        <v>1672603.445314538</v>
       </c>
       <c r="AE2" t="n">
-        <v>2190124.360389329</v>
+        <v>2288529.823935518</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.302140273820072e-06</v>
+        <v>2.443325891182012e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.86145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1981101.965292617</v>
+        <v>2070115.749510892</v>
       </c>
     </row>
     <row r="3">
@@ -57252,28 +57252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>639.8606317055002</v>
+        <v>687.7226136674265</v>
       </c>
       <c r="AB3" t="n">
-        <v>875.4855449582583</v>
+        <v>940.9724202001861</v>
       </c>
       <c r="AC3" t="n">
-        <v>791.930433299121</v>
+        <v>851.1673330793659</v>
       </c>
       <c r="AD3" t="n">
-        <v>639860.6317055002</v>
+        <v>687722.6136674265</v>
       </c>
       <c r="AE3" t="n">
-        <v>875485.5449582583</v>
+        <v>940972.4202001861</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.239527066246682e-06</v>
+        <v>4.202231184287532e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.896874999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>791930.433299121</v>
+        <v>851167.3330793659</v>
       </c>
     </row>
     <row r="4">
@@ -57358,28 +57358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>521.9987545435937</v>
+        <v>557.8739953099466</v>
       </c>
       <c r="AB4" t="n">
-        <v>714.2217249262939</v>
+        <v>763.3078120467386</v>
       </c>
       <c r="AC4" t="n">
-        <v>646.0574059158142</v>
+        <v>690.4587857742398</v>
       </c>
       <c r="AD4" t="n">
-        <v>521998.7545435937</v>
+        <v>557873.9953099466</v>
       </c>
       <c r="AE4" t="n">
-        <v>714221.7249262938</v>
+        <v>763307.8120467386</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.57358787664484e-06</v>
+        <v>4.829060293013685e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.001041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>646057.4059158142</v>
+        <v>690458.7857742398</v>
       </c>
     </row>
     <row r="5">
@@ -57464,28 +57464,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>462.3701524968466</v>
+        <v>498.3306446092199</v>
       </c>
       <c r="AB5" t="n">
-        <v>632.6352409776727</v>
+        <v>681.8379727507668</v>
       </c>
       <c r="AC5" t="n">
-        <v>572.2574214879</v>
+        <v>616.7643135970378</v>
       </c>
       <c r="AD5" t="n">
-        <v>462370.1524968466</v>
+        <v>498330.6446092199</v>
       </c>
       <c r="AE5" t="n">
-        <v>632635.2409776726</v>
+        <v>681837.9727507668</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.750330213970452e-06</v>
+        <v>5.160698241349936e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.615624999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>572257.4214879001</v>
+        <v>616764.3135970378</v>
       </c>
     </row>
     <row r="6">
@@ -57570,28 +57570,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>435.5974154447119</v>
+        <v>471.3873153564932</v>
       </c>
       <c r="AB6" t="n">
-        <v>596.0036010131432</v>
+        <v>644.9729210113904</v>
       </c>
       <c r="AC6" t="n">
-        <v>539.1218538287558</v>
+        <v>583.4176106552426</v>
       </c>
       <c r="AD6" t="n">
-        <v>435597.4154447119</v>
+        <v>471387.3153564932</v>
       </c>
       <c r="AE6" t="n">
-        <v>596003.6010131432</v>
+        <v>644972.9210113904</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.86153554366358e-06</v>
+        <v>5.369363057836671e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.397916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>539121.8538287558</v>
+        <v>583417.6106552426</v>
       </c>
     </row>
     <row r="7">
@@ -57676,28 +57676,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>420.0654736473776</v>
+        <v>444.0392245641776</v>
       </c>
       <c r="AB7" t="n">
-        <v>574.7521130251187</v>
+        <v>607.5540566767299</v>
       </c>
       <c r="AC7" t="n">
-        <v>519.8985780276577</v>
+        <v>549.5699502149761</v>
       </c>
       <c r="AD7" t="n">
-        <v>420065.4736473776</v>
+        <v>444039.2245641776</v>
       </c>
       <c r="AE7" t="n">
-        <v>574752.1130251187</v>
+        <v>607554.0566767299</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.93048284807332e-06</v>
+        <v>5.498735244058447e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.270833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>519898.5780276577</v>
+        <v>549569.9502149761</v>
       </c>
     </row>
     <row r="8">
@@ -57782,28 +57782,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>406.937163524361</v>
+        <v>430.910914441161</v>
       </c>
       <c r="AB8" t="n">
-        <v>556.7893799346413</v>
+        <v>589.5913235862524</v>
       </c>
       <c r="AC8" t="n">
-        <v>503.6501829724811</v>
+        <v>533.3215551597997</v>
       </c>
       <c r="AD8" t="n">
-        <v>406937.163524361</v>
+        <v>430910.914441161</v>
       </c>
       <c r="AE8" t="n">
-        <v>556789.3799346413</v>
+        <v>589591.3235862524</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.988754440832519e-06</v>
+        <v>5.608075607897496e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.167708333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>503650.1829724811</v>
+        <v>533321.5551597996</v>
       </c>
     </row>
     <row r="9">
@@ -57888,28 +57888,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>398.0483170191923</v>
+        <v>422.0220679359923</v>
       </c>
       <c r="AB9" t="n">
-        <v>544.6272679980381</v>
+        <v>577.4292116496493</v>
       </c>
       <c r="AC9" t="n">
-        <v>492.6488059294761</v>
+        <v>522.3201781167945</v>
       </c>
       <c r="AD9" t="n">
-        <v>398048.3170191923</v>
+        <v>422022.0679359923</v>
       </c>
       <c r="AE9" t="n">
-        <v>544627.2679980381</v>
+        <v>577429.2116496493</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.028343538203273e-06</v>
+        <v>5.682360282566774e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>492648.805929476</v>
+        <v>522320.1781167946</v>
       </c>
     </row>
     <row r="10">
@@ -57994,28 +57994,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>390.7105311952808</v>
+        <v>414.6842821120808</v>
       </c>
       <c r="AB10" t="n">
-        <v>534.587385713499</v>
+        <v>567.38932936511</v>
       </c>
       <c r="AC10" t="n">
-        <v>483.5671159191099</v>
+        <v>513.2384881064285</v>
       </c>
       <c r="AD10" t="n">
-        <v>390710.5311952808</v>
+        <v>414684.2821120808</v>
       </c>
       <c r="AE10" t="n">
-        <v>534587.3857134989</v>
+        <v>567389.32936511</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.059184482971501e-06</v>
+        <v>5.740229991672429e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.048958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>483567.1159191099</v>
+        <v>513238.4881064285</v>
       </c>
     </row>
     <row r="11">
@@ -58100,28 +58100,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>384.5181373227918</v>
+        <v>408.4918882395917</v>
       </c>
       <c r="AB11" t="n">
-        <v>526.1146792280225</v>
+        <v>558.9166228796336</v>
       </c>
       <c r="AC11" t="n">
-        <v>475.9030326490891</v>
+        <v>505.5744048364077</v>
       </c>
       <c r="AD11" t="n">
-        <v>384518.1373227918</v>
+        <v>408491.8882395917</v>
       </c>
       <c r="AE11" t="n">
-        <v>526114.6792280225</v>
+        <v>558916.6228796336</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.085873762097851e-06</v>
+        <v>5.790309547629245e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.005208333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>475903.0326490891</v>
+        <v>505574.4048364077</v>
       </c>
     </row>
     <row r="12">
@@ -58206,28 +58206,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>366.5452988984562</v>
+        <v>402.420450156258</v>
       </c>
       <c r="AB12" t="n">
-        <v>501.5234487901756</v>
+        <v>550.6094134410721</v>
       </c>
       <c r="AC12" t="n">
-        <v>453.6587547302218</v>
+        <v>498.0600238074207</v>
       </c>
       <c r="AD12" t="n">
-        <v>366545.2988984562</v>
+        <v>402420.450156258</v>
       </c>
       <c r="AE12" t="n">
-        <v>501523.4487901756</v>
+        <v>550609.4134410721</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.107966554263553e-06</v>
+        <v>5.831764291171276e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.969791666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>453658.7547302218</v>
+        <v>498060.0238074207</v>
       </c>
     </row>
     <row r="13">
@@ -58312,28 +58312,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>362.7203559758796</v>
+        <v>398.5955072336815</v>
       </c>
       <c r="AB13" t="n">
-        <v>496.2899931389342</v>
+        <v>545.3759577898306</v>
       </c>
       <c r="AC13" t="n">
-        <v>448.9247727411336</v>
+        <v>493.3260418183326</v>
       </c>
       <c r="AD13" t="n">
-        <v>362720.3559758796</v>
+        <v>398595.5072336814</v>
       </c>
       <c r="AE13" t="n">
-        <v>496289.9931389341</v>
+        <v>545375.9577898306</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.122200836464274e-06</v>
+        <v>5.858473387681579e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.946875</v>
       </c>
       <c r="AH13" t="n">
-        <v>448924.7727411336</v>
+        <v>493326.0418183326</v>
       </c>
     </row>
     <row r="14">
@@ -58418,28 +58418,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>358.1649512716583</v>
+        <v>394.0401025294601</v>
       </c>
       <c r="AB14" t="n">
-        <v>490.0570874523467</v>
+        <v>539.1430521032432</v>
       </c>
       <c r="AC14" t="n">
-        <v>443.286726825336</v>
+        <v>487.687995902535</v>
       </c>
       <c r="AD14" t="n">
-        <v>358164.9512716582</v>
+        <v>394040.1025294601</v>
       </c>
       <c r="AE14" t="n">
-        <v>490057.0874523467</v>
+        <v>539143.0521032432</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.138362677713008e-06</v>
+        <v>5.888799341010984e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.921875</v>
       </c>
       <c r="AH14" t="n">
-        <v>443286.726825336</v>
+        <v>487687.995902535</v>
       </c>
     </row>
     <row r="15">
@@ -58524,28 +58524,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>353.9231674981734</v>
+        <v>389.7983187559752</v>
       </c>
       <c r="AB15" t="n">
-        <v>484.2532917591718</v>
+        <v>533.3392564100683</v>
       </c>
       <c r="AC15" t="n">
-        <v>438.0368372474393</v>
+        <v>482.4381063246383</v>
       </c>
       <c r="AD15" t="n">
-        <v>353923.1674981734</v>
+        <v>389798.3187559752</v>
       </c>
       <c r="AE15" t="n">
-        <v>484253.2917591718</v>
+        <v>533339.2564100683</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.148890115590624e-06</v>
+        <v>5.908552943638395e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.905208333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>438036.8372474393</v>
+        <v>482438.1063246384</v>
       </c>
     </row>
     <row r="16">
@@ -58630,28 +58630,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>351.1904992904687</v>
+        <v>387.0656505482706</v>
       </c>
       <c r="AB16" t="n">
-        <v>480.5143345605775</v>
+        <v>529.6002992114741</v>
       </c>
       <c r="AC16" t="n">
-        <v>434.6547208762195</v>
+        <v>479.0559899534185</v>
       </c>
       <c r="AD16" t="n">
-        <v>351190.4992904687</v>
+        <v>387065.6505482706</v>
       </c>
       <c r="AE16" t="n">
-        <v>480514.3345605775</v>
+        <v>529600.299211474</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.158824458376543e-06</v>
+        <v>5.927193667244542e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.889583333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>434654.7208762194</v>
+        <v>479055.9899534185</v>
       </c>
     </row>
     <row r="17">
@@ -58736,28 +58736,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>347.1179546350256</v>
+        <v>382.9931058928273</v>
       </c>
       <c r="AB17" t="n">
-        <v>474.9420992950103</v>
+        <v>524.0280639459069</v>
       </c>
       <c r="AC17" t="n">
-        <v>429.6142919237167</v>
+        <v>474.0155610009157</v>
       </c>
       <c r="AD17" t="n">
-        <v>347117.9546350256</v>
+        <v>382993.1058928273</v>
       </c>
       <c r="AE17" t="n">
-        <v>474942.0992950103</v>
+        <v>524028.0639459068</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.170834633983401e-06</v>
+        <v>5.949729467425111e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.870833333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>429614.2919237167</v>
+        <v>474015.5610009157</v>
       </c>
     </row>
     <row r="18">
@@ -58842,28 +58842,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>343.3489225098219</v>
+        <v>379.2240737676237</v>
       </c>
       <c r="AB18" t="n">
-        <v>469.7851432633446</v>
+        <v>518.8711079142412</v>
       </c>
       <c r="AC18" t="n">
-        <v>424.9495085378799</v>
+        <v>469.350777615079</v>
       </c>
       <c r="AD18" t="n">
-        <v>343348.9225098219</v>
+        <v>379224.0737676237</v>
       </c>
       <c r="AE18" t="n">
-        <v>469785.1432633446</v>
+        <v>518871.1079142411</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.182399988271487e-06</v>
+        <v>5.971430608339732e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.853125</v>
       </c>
       <c r="AH18" t="n">
-        <v>424949.5085378799</v>
+        <v>469350.777615079</v>
       </c>
     </row>
     <row r="19">
@@ -58948,28 +58948,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>340.4945009312216</v>
+        <v>376.3696521890234</v>
       </c>
       <c r="AB19" t="n">
-        <v>465.8795977313112</v>
+        <v>514.9655623822076</v>
       </c>
       <c r="AC19" t="n">
-        <v>421.4167027899561</v>
+        <v>465.8179718671552</v>
       </c>
       <c r="AD19" t="n">
-        <v>340494.5009312216</v>
+        <v>376369.6521890234</v>
       </c>
       <c r="AE19" t="n">
-        <v>465879.5977313112</v>
+        <v>514965.5623822077</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.187144749005061e-06</v>
+        <v>5.980333640509832e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.845833333333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>421416.7027899561</v>
+        <v>465817.9718671552</v>
       </c>
     </row>
     <row r="20">
@@ -59054,28 +59054,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>337.5548599953019</v>
+        <v>373.4300112531036</v>
       </c>
       <c r="AB20" t="n">
-        <v>461.8574513149806</v>
+        <v>510.9434159658771</v>
       </c>
       <c r="AC20" t="n">
-        <v>417.7784243824822</v>
+        <v>462.1796934596812</v>
       </c>
       <c r="AD20" t="n">
-        <v>337554.8599953019</v>
+        <v>373430.0112531036</v>
       </c>
       <c r="AE20" t="n">
-        <v>461857.4513149806</v>
+        <v>510943.4159658771</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.192927426149103e-06</v>
+        <v>5.991184210967142e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.837499999999999</v>
       </c>
       <c r="AH20" t="n">
-        <v>417778.4243824822</v>
+        <v>462179.6934596812</v>
       </c>
     </row>
     <row r="21">
@@ -59160,28 +59160,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>334.0479297065305</v>
+        <v>369.9230809643323</v>
       </c>
       <c r="AB21" t="n">
-        <v>457.0591145790385</v>
+        <v>506.145079229935</v>
       </c>
       <c r="AC21" t="n">
-        <v>413.4380341701106</v>
+        <v>457.8393032473097</v>
       </c>
       <c r="AD21" t="n">
-        <v>334047.9297065305</v>
+        <v>369923.0809643323</v>
       </c>
       <c r="AE21" t="n">
-        <v>457059.1145790385</v>
+        <v>506145.079229935</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.197227365563904e-06</v>
+        <v>5.999252583871295e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.830208333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>413438.0341701106</v>
+        <v>457839.3032473096</v>
       </c>
     </row>
     <row r="22">
@@ -59266,28 +59266,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>330.8935484746474</v>
+        <v>366.7686997324492</v>
       </c>
       <c r="AB22" t="n">
-        <v>452.7431510160976</v>
+        <v>501.8291156669941</v>
       </c>
       <c r="AC22" t="n">
-        <v>409.5339801121237</v>
+        <v>453.9352491893228</v>
       </c>
       <c r="AD22" t="n">
-        <v>330893.5484746474</v>
+        <v>366768.6997324492</v>
       </c>
       <c r="AE22" t="n">
-        <v>452743.1510160976</v>
+        <v>501829.1156669941</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.205085875528885e-06</v>
+        <v>6.013998230903024e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.81875</v>
       </c>
       <c r="AH22" t="n">
-        <v>409533.9801121238</v>
+        <v>453935.2491893228</v>
       </c>
     </row>
     <row r="23">
@@ -59372,28 +59372,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>327.8270117195235</v>
+        <v>363.7021629773253</v>
       </c>
       <c r="AB23" t="n">
-        <v>448.5473801416834</v>
+        <v>497.63334479258</v>
       </c>
       <c r="AC23" t="n">
-        <v>405.7386477211624</v>
+        <v>450.1399167983614</v>
       </c>
       <c r="AD23" t="n">
-        <v>327827.0117195235</v>
+        <v>363702.1629773253</v>
       </c>
       <c r="AE23" t="n">
-        <v>448547.3801416834</v>
+        <v>497633.34479258</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.210720278900004e-06</v>
+        <v>6.024570581605019e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.810416666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>405738.6477211624</v>
+        <v>450139.9167983613</v>
       </c>
     </row>
     <row r="24">
@@ -59478,28 +59478,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>327.0529720270459</v>
+        <v>362.9281232848477</v>
       </c>
       <c r="AB24" t="n">
-        <v>447.4883048862146</v>
+        <v>496.5742695371111</v>
       </c>
       <c r="AC24" t="n">
-        <v>404.780649121654</v>
+        <v>449.1819181988531</v>
       </c>
       <c r="AD24" t="n">
-        <v>327052.972027046</v>
+        <v>362928.1232848478</v>
       </c>
       <c r="AE24" t="n">
-        <v>447488.3048862146</v>
+        <v>496574.2695371111</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.216354682271122e-06</v>
+        <v>6.035142932307014e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4.802083333333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>404780.649121654</v>
+        <v>449181.918198853</v>
       </c>
     </row>
     <row r="25">
@@ -59584,28 +59584,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>326.8796234679928</v>
+        <v>362.7547747257946</v>
       </c>
       <c r="AB25" t="n">
-        <v>447.2511217401193</v>
+        <v>496.3370863910159</v>
       </c>
       <c r="AC25" t="n">
-        <v>404.5661024021334</v>
+        <v>448.9673714793324</v>
       </c>
       <c r="AD25" t="n">
-        <v>326879.6234679928</v>
+        <v>362754.7747257946</v>
       </c>
       <c r="AE25" t="n">
-        <v>447251.1217401193</v>
+        <v>496337.0863910159</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.215465039633577e-06</v>
+        <v>6.033473613775121e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>5</v>
+        <v>4.803125000000001</v>
       </c>
       <c r="AH25" t="n">
-        <v>404566.1024021334</v>
+        <v>448967.3714793324</v>
       </c>
     </row>
     <row r="26">
@@ -59690,28 +59690,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>327.5558031950741</v>
+        <v>363.4309544528759</v>
       </c>
       <c r="AB26" t="n">
-        <v>448.1763006736562</v>
+        <v>497.2622653245527</v>
       </c>
       <c r="AC26" t="n">
-        <v>405.4029835567503</v>
+        <v>449.8042526339493</v>
       </c>
       <c r="AD26" t="n">
-        <v>327555.8031950741</v>
+        <v>363430.9544528759</v>
       </c>
       <c r="AE26" t="n">
-        <v>448176.3006736562</v>
+        <v>497262.2653245527</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.214575396996032e-06</v>
+        <v>6.031804295243227e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>4.805208333333334</v>
       </c>
       <c r="AH26" t="n">
-        <v>405402.9835567502</v>
+        <v>449804.2526339493</v>
       </c>
     </row>
   </sheetData>
@@ -59987,28 +59987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.2580766263268</v>
+        <v>187.5680633154344</v>
       </c>
       <c r="AB2" t="n">
-        <v>219.2721705274006</v>
+        <v>256.6388991469989</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.3451423227526</v>
+        <v>232.1456428074413</v>
       </c>
       <c r="AD2" t="n">
-        <v>160258.0766263268</v>
+        <v>187568.0633154344</v>
       </c>
       <c r="AE2" t="n">
-        <v>219272.1705274006</v>
+        <v>256638.8991469989</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.697482036065085e-06</v>
+        <v>9.247121972018719e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.367708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>198345.1423227526</v>
+        <v>232145.6428074413</v>
       </c>
     </row>
     <row r="3">
@@ -60093,28 +60093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.6728262777885</v>
+        <v>189.9828129668962</v>
       </c>
       <c r="AB3" t="n">
-        <v>222.5761375317649</v>
+        <v>259.9428661513633</v>
       </c>
       <c r="AC3" t="n">
-        <v>201.3337833533683</v>
+        <v>235.134283838057</v>
       </c>
       <c r="AD3" t="n">
-        <v>162672.8262777886</v>
+        <v>189982.8129668962</v>
       </c>
       <c r="AE3" t="n">
-        <v>222576.137531765</v>
+        <v>259942.8661513632</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.697291512953009e-06</v>
+        <v>9.246645488174126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.367708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>201333.7833533683</v>
+        <v>235134.283838057</v>
       </c>
     </row>
   </sheetData>
@@ -60390,28 +60390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>565.0351735684951</v>
+        <v>608.1203692652745</v>
       </c>
       <c r="AB2" t="n">
-        <v>773.1060520689724</v>
+        <v>832.0571176059894</v>
       </c>
       <c r="AC2" t="n">
-        <v>699.3218955206678</v>
+        <v>752.6467541011721</v>
       </c>
       <c r="AD2" t="n">
-        <v>565035.1735684951</v>
+        <v>608120.3692652745</v>
       </c>
       <c r="AE2" t="n">
-        <v>773106.0520689724</v>
+        <v>832057.1176059894</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.271499448231081e-06</v>
+        <v>4.67766123886908e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.488541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>699321.8955206678</v>
+        <v>752646.7541011721</v>
       </c>
     </row>
     <row r="3">
@@ -60496,28 +60496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>354.8823065601771</v>
+        <v>387.3241474832058</v>
       </c>
       <c r="AB3" t="n">
-        <v>485.5656281380343</v>
+        <v>529.9539861219324</v>
       </c>
       <c r="AC3" t="n">
-        <v>439.2239260841789</v>
+        <v>479.3759214815454</v>
       </c>
       <c r="AD3" t="n">
-        <v>354882.3065601771</v>
+        <v>387324.1474832058</v>
       </c>
       <c r="AE3" t="n">
-        <v>485565.6281380343</v>
+        <v>529953.9861219324</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.975811246952912e-06</v>
+        <v>6.1280388753351e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.716666666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>439223.9260841788</v>
+        <v>479375.9214815454</v>
       </c>
     </row>
     <row r="4">
@@ -60602,28 +60602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>314.4594303512049</v>
+        <v>346.7306790736415</v>
       </c>
       <c r="AB4" t="n">
-        <v>430.2572655774815</v>
+        <v>474.4122117865327</v>
       </c>
       <c r="AC4" t="n">
-        <v>389.1941160206309</v>
+        <v>429.1349761353463</v>
       </c>
       <c r="AD4" t="n">
-        <v>314459.4303512049</v>
+        <v>346730.6790736414</v>
       </c>
       <c r="AE4" t="n">
-        <v>430257.2655774815</v>
+        <v>474412.2117865327</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.211452778498379e-06</v>
+        <v>6.613291583292546e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>389194.1160206309</v>
+        <v>429134.9761353463</v>
       </c>
     </row>
     <row r="5">
@@ -60708,28 +60708,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>293.9470495139733</v>
+        <v>315.5750329712101</v>
       </c>
       <c r="AB5" t="n">
-        <v>402.1913211736062</v>
+        <v>431.7836822990868</v>
       </c>
       <c r="AC5" t="n">
-        <v>363.8067459598611</v>
+        <v>390.5748536726654</v>
       </c>
       <c r="AD5" t="n">
-        <v>293947.0495139733</v>
+        <v>315575.0329712101</v>
       </c>
       <c r="AE5" t="n">
-        <v>402191.3211736063</v>
+        <v>431783.6822990868</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.335233984951231e-06</v>
+        <v>6.868192174166937e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>363806.7459598611</v>
+        <v>390574.8536726654</v>
       </c>
     </row>
     <row r="6">
@@ -60814,28 +60814,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>270.16592834976</v>
+        <v>302.5224284182171</v>
       </c>
       <c r="AB6" t="n">
-        <v>369.6529420477092</v>
+        <v>413.9245329094095</v>
       </c>
       <c r="AC6" t="n">
-        <v>334.3737840698377</v>
+        <v>374.4201564352654</v>
       </c>
       <c r="AD6" t="n">
-        <v>270165.92834976</v>
+        <v>302522.4284182171</v>
       </c>
       <c r="AE6" t="n">
-        <v>369652.9420477092</v>
+        <v>413924.5329094096</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.407249172346623e-06</v>
+        <v>7.016491858303619e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.992708333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>334373.7840698377</v>
+        <v>374420.1564352654</v>
       </c>
     </row>
     <row r="7">
@@ -60920,28 +60920,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>259.3002637524443</v>
+        <v>291.6567638209014</v>
       </c>
       <c r="AB7" t="n">
-        <v>354.7860603863712</v>
+        <v>399.0576512480716</v>
       </c>
       <c r="AC7" t="n">
-        <v>320.9257767284582</v>
+        <v>360.972149093886</v>
       </c>
       <c r="AD7" t="n">
-        <v>259300.2637524442</v>
+        <v>291656.7638209014</v>
       </c>
       <c r="AE7" t="n">
-        <v>354786.0603863712</v>
+        <v>399057.6512480716</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.462771085531278e-06</v>
+        <v>7.13082721568791e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.9125</v>
       </c>
       <c r="AH7" t="n">
-        <v>320925.7767284582</v>
+        <v>360972.149093886</v>
       </c>
     </row>
     <row r="8">
@@ -61026,28 +61026,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>251.2700999716473</v>
+        <v>283.6266000401076</v>
       </c>
       <c r="AB8" t="n">
-        <v>343.7988360354993</v>
+        <v>388.0704268973664</v>
       </c>
       <c r="AC8" t="n">
-        <v>310.9871576490707</v>
+        <v>351.0335300145459</v>
       </c>
       <c r="AD8" t="n">
-        <v>251270.0999716473</v>
+        <v>283626.6000401076</v>
       </c>
       <c r="AE8" t="n">
-        <v>343798.8360354993</v>
+        <v>388070.4268973664</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.496737432420716e-06</v>
+        <v>7.200773551970065e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.864583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>310987.1576490707</v>
+        <v>351033.5300145459</v>
       </c>
     </row>
     <row r="9">
@@ -61132,28 +61132,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>246.1335744458678</v>
+        <v>278.4900745143281</v>
       </c>
       <c r="AB9" t="n">
-        <v>336.7708152036184</v>
+        <v>381.0424060654817</v>
       </c>
       <c r="AC9" t="n">
-        <v>304.629881261493</v>
+        <v>344.6762536269671</v>
       </c>
       <c r="AD9" t="n">
-        <v>246133.5744458678</v>
+        <v>278490.074514328</v>
       </c>
       <c r="AE9" t="n">
-        <v>336770.8152036184</v>
+        <v>381042.4060654817</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.516006802290684e-06</v>
+        <v>7.240454646591671e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.838541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>304629.881261493</v>
+        <v>344676.2536269671</v>
       </c>
     </row>
     <row r="10">
@@ -61238,28 +61238,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>245.4662164016883</v>
+        <v>277.8227164701485</v>
       </c>
       <c r="AB10" t="n">
-        <v>335.8577064858134</v>
+        <v>380.1292973476763</v>
       </c>
       <c r="AC10" t="n">
-        <v>303.803918358159</v>
+        <v>343.850290723633</v>
       </c>
       <c r="AD10" t="n">
-        <v>245466.2164016883</v>
+        <v>277822.7164701485</v>
       </c>
       <c r="AE10" t="n">
-        <v>335857.7064858134</v>
+        <v>380129.2973476763</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.51943609692856e-06</v>
+        <v>7.247516536312466e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>303803.918358159</v>
+        <v>343850.290723633</v>
       </c>
     </row>
     <row r="11">
@@ -61344,28 +61344,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>246.8706701777079</v>
+        <v>279.2271702461682</v>
       </c>
       <c r="AB11" t="n">
-        <v>337.77934210229</v>
+        <v>382.0509329641541</v>
       </c>
       <c r="AC11" t="n">
-        <v>305.5421557684322</v>
+        <v>345.5885281339066</v>
       </c>
       <c r="AD11" t="n">
-        <v>246870.6701777079</v>
+        <v>279227.1702461682</v>
       </c>
       <c r="AE11" t="n">
-        <v>337779.34210229</v>
+        <v>382050.9329641541</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.5192727971839e-06</v>
+        <v>7.247180255849571e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>305542.1557684322</v>
+        <v>345588.5281339065</v>
       </c>
     </row>
   </sheetData>
@@ -61641,28 +61641,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>801.75257479705</v>
+        <v>857.9737705863462</v>
       </c>
       <c r="AB2" t="n">
-        <v>1096.993243664577</v>
+        <v>1173.917564047599</v>
       </c>
       <c r="AC2" t="n">
-        <v>992.2977481289163</v>
+        <v>1061.880519338544</v>
       </c>
       <c r="AD2" t="n">
-        <v>801752.57479705</v>
+        <v>857973.7705863462</v>
       </c>
       <c r="AE2" t="n">
-        <v>1096993.243664577</v>
+        <v>1173917.564047599</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.895947957174059e-06</v>
+        <v>3.756221969520354e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.637500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>992297.7481289163</v>
+        <v>1061880.519338544</v>
       </c>
     </row>
     <row r="3">
@@ -61747,28 +61747,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>450.8373615136556</v>
+        <v>484.5360321539557</v>
       </c>
       <c r="AB3" t="n">
-        <v>616.8555675636411</v>
+        <v>662.9635754141237</v>
       </c>
       <c r="AC3" t="n">
-        <v>557.983737957593</v>
+        <v>599.6912622518209</v>
       </c>
       <c r="AD3" t="n">
-        <v>450837.3615136556</v>
+        <v>484536.0321539557</v>
       </c>
       <c r="AE3" t="n">
-        <v>616855.5675636411</v>
+        <v>662963.5754141237</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.691494574911909e-06</v>
+        <v>5.332346288765149e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.084374999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>557983.7379575931</v>
+        <v>599691.262251821</v>
       </c>
     </row>
     <row r="4">
@@ -61853,28 +61853,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>378.6178987997754</v>
+        <v>412.4018207860962</v>
       </c>
       <c r="AB4" t="n">
-        <v>518.041712580679</v>
+        <v>564.2663650838109</v>
       </c>
       <c r="AC4" t="n">
-        <v>468.6005386080884</v>
+        <v>510.4135751530285</v>
       </c>
       <c r="AD4" t="n">
-        <v>378617.8987997755</v>
+        <v>412401.8207860962</v>
       </c>
       <c r="AE4" t="n">
-        <v>518041.712580679</v>
+        <v>564266.3650838109</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.96679143808562e-06</v>
+        <v>5.877760060108556e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.520833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>468600.5386080883</v>
+        <v>510413.5751530285</v>
       </c>
     </row>
     <row r="5">
@@ -61959,28 +61959,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>350.7903937572678</v>
+        <v>373.313097923366</v>
       </c>
       <c r="AB5" t="n">
-        <v>479.9668925186417</v>
+        <v>510.783449990278</v>
       </c>
       <c r="AC5" t="n">
-        <v>434.1595259344263</v>
+        <v>462.0349944122797</v>
       </c>
       <c r="AD5" t="n">
-        <v>350790.3937572678</v>
+        <v>373313.097923366</v>
       </c>
       <c r="AE5" t="n">
-        <v>479966.8925186417</v>
+        <v>510783.449990278</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.113008504191589e-06</v>
+        <v>6.1674429883492e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.260416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>434159.5259344262</v>
+        <v>462034.9944122797</v>
       </c>
     </row>
     <row r="6">
@@ -62065,28 +62065,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>334.5211755482077</v>
+        <v>357.0438797143059</v>
       </c>
       <c r="AB6" t="n">
-        <v>457.7066304177543</v>
+        <v>488.5231878893905</v>
       </c>
       <c r="AC6" t="n">
-        <v>414.0237520059734</v>
+        <v>441.8992204838269</v>
       </c>
       <c r="AD6" t="n">
-        <v>334521.1755482077</v>
+        <v>357043.8797143059</v>
       </c>
       <c r="AE6" t="n">
-        <v>457706.6304177543</v>
+        <v>488523.1878893905</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.199166517337902e-06</v>
+        <v>6.338137875097452e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.119791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>414023.7520059734</v>
+        <v>441899.2204838269</v>
       </c>
     </row>
     <row r="7">
@@ -62171,28 +62171,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>323.843787767374</v>
+        <v>346.3664919334721</v>
       </c>
       <c r="AB7" t="n">
-        <v>443.0973574029139</v>
+        <v>473.9139148745501</v>
       </c>
       <c r="AC7" t="n">
-        <v>400.808767503426</v>
+        <v>428.6842359812794</v>
       </c>
       <c r="AD7" t="n">
-        <v>323843.787767374</v>
+        <v>346366.4919334721</v>
       </c>
       <c r="AE7" t="n">
-        <v>443097.3574029139</v>
+        <v>473913.9148745501</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.253880000138844e-06</v>
+        <v>6.446535357922982e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.033333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>400808.767503426</v>
+        <v>428684.2359812794</v>
       </c>
     </row>
     <row r="8">
@@ -62277,28 +62277,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>303.138161775858</v>
+        <v>336.8367429076071</v>
       </c>
       <c r="AB8" t="n">
-        <v>414.7670064535725</v>
+        <v>460.8748918345066</v>
       </c>
       <c r="AC8" t="n">
-        <v>375.1822254867924</v>
+        <v>416.8896389997939</v>
       </c>
       <c r="AD8" t="n">
-        <v>303138.161775858</v>
+        <v>336836.7429076071</v>
       </c>
       <c r="AE8" t="n">
-        <v>414767.0064535725</v>
+        <v>460874.8918345066</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.299631791791357e-06</v>
+        <v>6.537178080630539e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.963541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>375182.2254867924</v>
+        <v>416889.6389997939</v>
       </c>
     </row>
     <row r="9">
@@ -62383,28 +62383,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>296.4794064036388</v>
+        <v>330.1779875353878</v>
       </c>
       <c r="AB9" t="n">
-        <v>405.6562035897479</v>
+        <v>451.7640889706821</v>
       </c>
       <c r="AC9" t="n">
-        <v>366.9409448611991</v>
+        <v>408.6483583742005</v>
       </c>
       <c r="AD9" t="n">
-        <v>296479.4064036388</v>
+        <v>330177.9875353879</v>
       </c>
       <c r="AE9" t="n">
-        <v>405656.2035897479</v>
+        <v>451764.0889706821</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.328560759709097e-06</v>
+        <v>6.594491692239441e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.919791666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>366940.9448611991</v>
+        <v>408648.3583742005</v>
       </c>
     </row>
     <row r="10">
@@ -62489,28 +62489,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>289.3891824657975</v>
+        <v>323.0877635975465</v>
       </c>
       <c r="AB10" t="n">
-        <v>395.9550463993894</v>
+        <v>442.0629317803236</v>
       </c>
       <c r="AC10" t="n">
-        <v>358.1656524974289</v>
+        <v>399.8730660104304</v>
       </c>
       <c r="AD10" t="n">
-        <v>289389.1824657975</v>
+        <v>323087.7635975465</v>
       </c>
       <c r="AE10" t="n">
-        <v>395955.0463993894</v>
+        <v>442062.9317803236</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.355288610502661e-06</v>
+        <v>6.647444485573752e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.881250000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>358165.6524974289</v>
+        <v>399873.0660104303</v>
       </c>
     </row>
     <row r="11">
@@ -62595,28 +62595,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>283.3349578434722</v>
+        <v>317.0335389752212</v>
       </c>
       <c r="AB11" t="n">
-        <v>387.6713891775842</v>
+        <v>433.7792745585183</v>
       </c>
       <c r="AC11" t="n">
-        <v>350.6725758946868</v>
+        <v>392.3799894076881</v>
       </c>
       <c r="AD11" t="n">
-        <v>283334.9578434722</v>
+        <v>317033.5389752212</v>
       </c>
       <c r="AE11" t="n">
-        <v>387671.3891775842</v>
+        <v>433779.2745585183</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.374941441968517e-06</v>
+        <v>6.686380363025451e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.852083333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>350672.5758946867</v>
+        <v>392379.9894076881</v>
       </c>
     </row>
     <row r="12">
@@ -62701,28 +62701,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>277.9200826314858</v>
+        <v>311.6186637632348</v>
       </c>
       <c r="AB12" t="n">
-        <v>380.2625180251098</v>
+        <v>426.3704034060439</v>
       </c>
       <c r="AC12" t="n">
-        <v>343.9707970065886</v>
+        <v>385.67821051959</v>
       </c>
       <c r="AD12" t="n">
-        <v>277920.0826314858</v>
+        <v>311618.6637632349</v>
       </c>
       <c r="AE12" t="n">
-        <v>380262.5180251098</v>
+        <v>426370.4034060439</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.389877593882568e-06</v>
+        <v>6.715971629888743e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.83125</v>
       </c>
       <c r="AH12" t="n">
-        <v>343970.7970065886</v>
+        <v>385678.2105195901</v>
       </c>
     </row>
     <row r="13">
@@ -62807,28 +62807,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>273.8870811752242</v>
+        <v>307.5856623069732</v>
       </c>
       <c r="AB13" t="n">
-        <v>374.7443875091857</v>
+        <v>420.8522728901199</v>
       </c>
       <c r="AC13" t="n">
-        <v>338.9793091223594</v>
+        <v>380.6867226353609</v>
       </c>
       <c r="AD13" t="n">
-        <v>273887.0811752242</v>
+        <v>307585.6623069732</v>
       </c>
       <c r="AE13" t="n">
-        <v>374744.3875091857</v>
+        <v>420852.2728901199</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.399310952986179e-06</v>
+        <v>6.734660851065559e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.817708333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>338979.3091223594</v>
+        <v>380686.7226353609</v>
       </c>
     </row>
     <row r="14">
@@ -62913,28 +62913,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>272.8858773521621</v>
+        <v>306.5844584839111</v>
       </c>
       <c r="AB14" t="n">
-        <v>373.3744962684768</v>
+        <v>419.482381649411</v>
       </c>
       <c r="AC14" t="n">
-        <v>337.7401583790094</v>
+        <v>379.4475718920108</v>
       </c>
       <c r="AD14" t="n">
-        <v>272885.8773521621</v>
+        <v>306584.4584839111</v>
       </c>
       <c r="AE14" t="n">
-        <v>373374.4962684768</v>
+        <v>419482.381649411</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.404813745796618e-06</v>
+        <v>6.745562896752034e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.810416666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>337740.1583790094</v>
+        <v>379447.5718920109</v>
       </c>
     </row>
     <row r="15">
@@ -63019,28 +63019,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>273.9621552018254</v>
+        <v>307.6607363335744</v>
       </c>
       <c r="AB15" t="n">
-        <v>374.8471071044137</v>
+        <v>420.9549924853479</v>
       </c>
       <c r="AC15" t="n">
-        <v>339.0722253035867</v>
+        <v>380.7796388165882</v>
       </c>
       <c r="AD15" t="n">
-        <v>273962.1552018254</v>
+        <v>307660.7363335744</v>
       </c>
       <c r="AE15" t="n">
-        <v>374847.1071044137</v>
+        <v>420954.9924853479</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.403555964582804e-06</v>
+        <v>6.743071000595126e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.811458333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>339072.2253035867</v>
+        <v>380779.6388165882</v>
       </c>
     </row>
   </sheetData>
